--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\大厂\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE4ED9-C00F-4032-A197-6AC4BA363AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3A4A0-7E2D-4844-B077-2C5D4A13F9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="471">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2061,10 +2061,6 @@
     <t>https://campus.ctrip.com/</t>
   </si>
   <si>
-    <t>03.10投递、03.17简历挂、03.17复投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作业帮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2282,6 +2278,34 @@
   </si>
   <si>
     <t>03.20、03.24回到人才库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.10投递、03.17简历挂、03.17复投、03.26简历挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.23、03.26简历挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.26笔试不参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2393,7 +2417,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2463,6 +2487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2636,7 +2666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2840,6 +2870,9 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2857,6 +2890,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3240,8 +3276,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L44" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:L44" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L46" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:L46" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
     <sortCondition ref="A1:A33"/>
   </sortState>
@@ -3583,10 +3619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3618,10 +3654,10 @@
         <v>395</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>329</v>
@@ -3651,7 +3687,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="66" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B2" s="61" t="s">
         <v>387</v>
@@ -3660,7 +3696,7 @@
         <v>396</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E2" s="58"/>
       <c r="F2" s="55"/>
@@ -3668,7 +3704,7 @@
         <v>389</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I2" s="54" t="s">
         <v>373</v>
@@ -3712,24 +3748,27 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="67" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>463</v>
+        <v>462</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>467</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="52"/>
       <c r="K4" s="48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L4" s="48"/>
       <c r="P4" s="57"/>
@@ -3740,33 +3779,36 @@
         <v>358</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>470</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J5" s="52"/>
       <c r="K5" s="63" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L5" s="48"/>
       <c r="P5" s="57"/>
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="67" t="s">
-        <v>429</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>422</v>
+      <c r="A6" s="66" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>465</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>1</v>
@@ -3774,7 +3816,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="48"/>
       <c r="L6" s="63" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P6" s="57"/>
       <c r="T6" s="7"/>
@@ -3816,21 +3858,27 @@
         <v>145</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>466</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>469</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>355</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L9" s="48" t="s">
         <v>337</v>
@@ -3843,11 +3891,11 @@
         <v>161</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F10" s="55"/>
       <c r="G10" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>63</v>
@@ -3856,7 +3904,7 @@
         <v>368</v>
       </c>
       <c r="K10" s="63" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L10" s="48"/>
       <c r="P10" s="57"/>
@@ -3885,36 +3933,36 @@
         <v>349</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F12" s="55"/>
       <c r="G12" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J12" s="52" t="s">
         <v>350</v>
       </c>
       <c r="K12" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="L12" s="63" t="s">
         <v>425</v>
-      </c>
-      <c r="L12" s="63" t="s">
-        <v>426</v>
       </c>
       <c r="P12" s="57"/>
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>406</v>
+      <c r="B13" s="58" t="s">
+        <v>464</v>
       </c>
       <c r="F13" s="55"/>
       <c r="I13" s="7" t="s">
@@ -3935,32 +3983,34 @@
         <v>403</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>399</v>
       </c>
       <c r="D14" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="56" t="s">
         <v>417</v>
       </c>
-      <c r="E14" s="56" t="s">
-        <v>418</v>
-      </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="76" t="s">
+        <v>468</v>
+      </c>
       <c r="G14" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K14" s="60" t="s">
         <v>404</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P14" s="57"/>
       <c r="T14" s="7"/>
@@ -3979,16 +4029,16 @@
         <v>397</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="J15" s="52"/>
       <c r="K15" s="59" t="s">
@@ -3999,7 +4049,7 @@
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="69" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="53"/>
@@ -4026,7 +4076,7 @@
       <c r="B17" s="53"/>
       <c r="F17" s="55"/>
       <c r="I17" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J17" s="52"/>
       <c r="K17" s="48"/>
@@ -4140,14 +4190,14 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="69" t="s">
         <v>347</v>
       </c>
       <c r="B25" s="53"/>
       <c r="F25" s="55"/>
       <c r="J25" s="52"/>
       <c r="K25" s="63" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L25" s="48"/>
       <c r="P25" s="57"/>
@@ -4168,7 +4218,7 @@
       </c>
       <c r="F26" s="55"/>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>63</v>
@@ -4188,20 +4238,23 @@
         <v>12</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>468</v>
       </c>
       <c r="F27" s="55"/>
       <c r="G27" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H27" s="65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J27" s="52" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K27" s="48"/>
       <c r="L27" s="60" t="s">
@@ -4271,23 +4324,23 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="67" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F32" s="55"/>
       <c r="G32" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J32" s="52" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K32" s="59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L32" s="48"/>
       <c r="P32" s="57"/>
@@ -4298,21 +4351,21 @@
         <v>32</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F33" s="55"/>
       <c r="G33" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>461</v>
-      </c>
       <c r="I33" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J33" s="52"/>
       <c r="K33" s="63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L33" s="48"/>
       <c r="P33" s="57"/>
@@ -4340,7 +4393,7 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B36" s="53"/>
       <c r="F36" s="55"/>
@@ -4350,7 +4403,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B37" s="53"/>
       <c r="F37" s="55"/>
@@ -4360,7 +4413,7 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B38" s="53"/>
       <c r="F38" s="55"/>
@@ -4370,7 +4423,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B39" s="53"/>
       <c r="F39" s="55"/>
@@ -4390,7 +4443,7 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B41" s="53"/>
       <c r="F41" s="55"/>
@@ -4400,7 +4453,7 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B42" s="53"/>
       <c r="F42" s="55"/>
@@ -4410,7 +4463,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B43" s="53"/>
       <c r="F43" s="55"/>
@@ -4419,7 +4472,7 @@
       <c r="L43" s="64"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="69" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="53"/>
@@ -4427,6 +4480,26 @@
       <c r="J44" s="52"/>
       <c r="K44" s="48"/>
       <c r="L44" s="64"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A45" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="53"/>
+      <c r="F45" s="55"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="64"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A46" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="B46" s="53"/>
+      <c r="F46" s="55"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6177,7 +6250,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6188,7 +6261,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="73"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -6197,7 +6270,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="74"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -6206,7 +6279,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6217,7 +6290,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="73"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -6226,7 +6299,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="73"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -6235,11 +6308,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F3A4A0-7E2D-4844-B077-2C5D4A13F9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0E1AC-62A8-4F86-9656-6A7A50FF1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="485">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2307,6 +2307,54 @@
   <si>
     <t>03.28</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用软件开发工程师_终端云服务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xiaomi.jobs.f.mioffice.cn/referral/campus/position/share/?token=NTsxNzI5ODI4ODQxMjAwOzcxMjMwMzE3MDU4MDc4MTQ3NjU7NzQyOTU0OTU0Nzg3OTkyMzgyMQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64GCJD5 </t>
+  </si>
+  <si>
+    <t>猿辅导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/su/brfuza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTAVP5l</t>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.lenovo.com.cn/home</t>
+  </si>
+  <si>
+    <t>联想员工推荐 2025XZLMWYL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://poizon.jobs.feishu.cn/s/i5yTpNVS</t>
+  </si>
+  <si>
+    <t>P556D7F</t>
+  </si>
+  <si>
+    <t>https://careers.pddglobalhr.com/campus/intern?t=3I7PljuOcV</t>
+  </si>
+  <si>
+    <t>3I7PljuOcV</t>
   </si>
 </sst>
 </file>
@@ -2891,8 +2939,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3276,8 +3324,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L46" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:L46" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L49" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:L49" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
     <sortCondition ref="A1:A33"/>
   </sortState>
@@ -3619,10 +3667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3994,7 +4042,7 @@
       <c r="E14" s="56" t="s">
         <v>417</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="55" t="s">
         <v>468</v>
       </c>
       <c r="G14" s="7" t="s">
@@ -4078,9 +4126,13 @@
       <c r="I17" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="J17" s="52"/>
+      <c r="J17" s="52" t="s">
+        <v>484</v>
+      </c>
       <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
+      <c r="L17" s="48" t="s">
+        <v>483</v>
+      </c>
       <c r="P17" s="57"/>
       <c r="T17" s="7"/>
     </row>
@@ -4472,11 +4524,19 @@
       <c r="L43" s="64"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="53"/>
+      <c r="B44" s="62" t="s">
+        <v>471</v>
+      </c>
       <c r="F44" s="55"/>
+      <c r="G44" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>460</v>
+      </c>
       <c r="J44" s="52"/>
       <c r="K44" s="48"/>
       <c r="L44" s="64"/>
@@ -4487,9 +4547,13 @@
       </c>
       <c r="B45" s="53"/>
       <c r="F45" s="55"/>
-      <c r="J45" s="52"/>
+      <c r="J45" s="52" t="s">
+        <v>474</v>
+      </c>
       <c r="K45" s="48"/>
-      <c r="L45" s="64"/>
+      <c r="L45" s="64" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="69" t="s">
@@ -4500,6 +4564,48 @@
       <c r="J46" s="52"/>
       <c r="K46" s="48"/>
       <c r="L46" s="64"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B47" s="53"/>
+      <c r="F47" s="55"/>
+      <c r="J47" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="K47" s="48"/>
+      <c r="L47" s="76" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B48" s="53"/>
+      <c r="F48" s="55"/>
+      <c r="J48" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="K48" s="48"/>
+      <c r="L48" s="64" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="53"/>
+      <c r="F49" s="55"/>
+      <c r="J49" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="K49" s="48"/>
+      <c r="L49" s="64" t="s">
+        <v>481</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4523,10 +4629,11 @@
     <hyperlink ref="K10" r:id="rId17" xr:uid="{9BB79AAC-3B94-4AA3-81ED-A13503476798}"/>
     <hyperlink ref="K25" r:id="rId18" xr:uid="{93A8D6DD-9772-49EC-BB6C-016CBA6ECF04}"/>
     <hyperlink ref="K33" r:id="rId19" xr:uid="{C2090F32-7AF7-486A-AB8F-DAD43AFD3578}"/>
+    <hyperlink ref="L47" r:id="rId20" xr:uid="{5FA78125-214D-464A-BA80-CD5B1B65F867}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0E1AC-62A8-4F86-9656-6A7A50FF1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AC95FB-DE51-4F30-86A1-1BB6D66DB4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="479">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1797,10 +1797,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4000+HC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1815,20 +1811,10 @@
     <t>https://careers.aliyun.com/campus/home?from=gzhWeChat&amp;lang=zh</t>
   </si>
   <si>
-    <t>https://job.toutiao.com/campus/m/position?keywords=%E7%94%9F%E6%B4%BB%E6%9C%8D%E5%8A%A1&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
-  </si>
-  <si>
     <t>https://talent.taotian.com/campus/home</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://job.toutiao.com/campus/m/position?keywords=%E6%8A%96%E9%9F%B3%E7%A0%94%E5%8F%91&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
-  </si>
-  <si>
-    <t>https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://u.alipay.cn/_N6Ibaxr7EpDy9gXfmGKHj</t>
   </si>
   <si>
@@ -1845,10 +1831,6 @@
     <t>https://jobs.mihoyo.com/m/?recommendationCode=9QK8&amp;isRecommendation=true#/campus/position</t>
   </si>
   <si>
-    <t>网易雷火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内推码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1878,9 +1860,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://job.toutiao.com/campus/m/position?keywords=%E5%89%AA%E6%98%A0&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=3&amp;external_referral_code=BEGNWJ8</t>
-  </si>
-  <si>
     <t>无限复活甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1896,14 +1875,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字节 抖音研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节 生活服务研发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ES1W02</t>
   </si>
   <si>
@@ -1941,49 +1912,6 @@
     <t>每人可投递两个志愿</t>
   </si>
   <si>
-    <t>腾讯 WXG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯 CDG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节 抖音剪映</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯 CSIG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/xWjl-MLerE3CB4XjWEQi4g</t>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/x4qMjX8HG5aS4m90eWB4vw</t>
-  </si>
-  <si>
-    <t>腾讯 IEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/-Ai7BOR8ptlDEQHpk5QrbQ</t>
-  </si>
-  <si>
-    <t>腾讯 PCG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/xj5y20zUz3Hnq9RwInxvaQ</t>
-  </si>
-  <si>
-    <t>腾讯 TEG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mp.weixin.qq.com/s/48Mc43QSiSNUBsvylhRazg</t>
-  </si>
-  <si>
     <t>https://careers.oppo.com/university/oppo/campus/post?shareId=9501</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2181,26 +2109,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>喜马拉雅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿里 盒马</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莉莉丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏科学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完美世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3000+实习HC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2277,10 +2189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03.20、03.24回到人才库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>03.10投递、03.17简历挂、03.17复投、03.26简历挂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2313,55 +2221,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>通用软件开发工程师_终端云服务部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">64GCJD5 </t>
+  </si>
+  <si>
+    <t>猿辅导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/su/brfuza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTAVP5l</t>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想员工推荐 2025XZLMWYL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://poizon.jobs.feishu.cn/s/i5yTpNVS</t>
+  </si>
+  <si>
+    <t>P556D7F</t>
+  </si>
+  <si>
+    <t>https://careers.pddglobalhr.com/campus/intern?t=3I7PljuOcV</t>
+  </si>
+  <si>
+    <t>3I7PljuOcV</t>
+  </si>
+  <si>
+    <t>华为 终端云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.lenovo.com.cn/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.20、03.24回到人才库、测开捞我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏 莉莉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏 米哈游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏 完美世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏 网易雷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏 游戏科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDG https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q
+CSIG https://mp.weixin.qq.com/s/xWjl-MLerE3CB4XjWEQi4g
+IEG https://mp.weixin.qq.com/s/x4qMjX8HG5aS4m90eWB4vw
+PCG https://mp.weixin.qq.com/s/-Ai7BOR8ptlDEQHpk5QrbQ
+TEG https://mp.weixin.qq.com/s/xj5y20zUz3Hnq9RwInxvaQ
+WXG https://join.qq.com/resume.html?k=3ArEonpIbFDOchxgIHUt9Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M8WFEP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://iq.jobs.feishu.cn/s/iSneYTTn</t>
+  </si>
+  <si>
+    <t>为什么验证码是飞书？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑期实习未开放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月投递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8
+抖音剪映 https://job.toutiao.com/campus/m/position?keywords=%E5%89%AA%E6%98%A0&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=3&amp;external_referral_code=BEGNWJ8
+抖音研发 https://job.toutiao.com/campus/m/position?keywords=%E6%8A%96%E9%9F%B3%E7%A0%94%E5%8F%91&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8
+生活服务研发 https://job.toutiao.com/campus/m/position?keywords=%E7%94%9F%E6%B4%BB%E6%9C%8D%E5%8A%A1&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/campus_apply/didiglobal/96064?recommendCode=DSy5Ewhy&amp;hash=%23%2Fjobs#/jobs</t>
+  </si>
+  <si>
+    <t>DSy5Ewhy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.honor.com/SU61b9b9992f9d24431f5050a5/pb/interns.html</t>
   </si>
   <si>
     <t>https://xiaomi.jobs.f.mioffice.cn/referral/campus/position/share/?token=NTsxNzI5ODI4ODQxMjAwOzcxMjMwMzE3MDU4MDc4MTQ3NjU7NzQyOTU0OTU0Nzg3OTkyMzgyMQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64GCJD5 </t>
-  </si>
-  <si>
-    <t>猿辅导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/su/brfuza</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTAVP5l</t>
-  </si>
-  <si>
-    <t>联想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.lenovo.com.cn/home</t>
-  </si>
-  <si>
-    <t>联想员工推荐 2025XZLMWYL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://poizon.jobs.feishu.cn/s/i5yTpNVS</t>
-  </si>
-  <si>
-    <t>P556D7F</t>
-  </si>
-  <si>
-    <t>https://careers.pddglobalhr.com/campus/intern?t=3I7PljuOcV</t>
-  </si>
-  <si>
-    <t>3I7PljuOcV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2464,8 +2455,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2528,19 +2526,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2714,7 +2718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2887,16 +2891,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2909,38 +2907,63 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3324,10 +3347,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L49" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:L49" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
-    <sortCondition ref="A1:A33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L38" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:L38" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L38">
+    <sortCondition ref="A1:A38"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="41"/>
@@ -3667,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3693,19 +3716,19 @@
         <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>329</v>
@@ -3717,10 +3740,10 @@
         <v>332</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K1" s="51" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L1" s="51" t="s">
         <v>331</v>
@@ -3734,906 +3757,821 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>396</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="E2" s="58"/>
+      <c r="A2" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" s="76"/>
       <c r="F2" s="55"/>
       <c r="G2" s="7" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>372</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>386</v>
+        <v>364</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>366</v>
       </c>
       <c r="L2" s="48"/>
       <c r="P2" s="57"/>
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>366</v>
+      <c r="B3" s="60" t="s">
+        <v>358</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="7" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K3" s="48"/>
-      <c r="L3" s="59" t="s">
-        <v>391</v>
+      <c r="L3" s="58" t="s">
+        <v>371</v>
       </c>
       <c r="P3" s="57"/>
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="67" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>421</v>
+      <c r="A4" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>401</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="D4" s="55" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="7" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="52"/>
       <c r="K4" s="48" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="L4" s="48"/>
       <c r="P4" s="57"/>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="67" t="s">
-        <v>358</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>421</v>
+      <c r="A5" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>401</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="7" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="J5" s="52"/>
-      <c r="K5" s="63" t="s">
-        <v>420</v>
+      <c r="K5" s="61" t="s">
+        <v>400</v>
       </c>
       <c r="L5" s="48"/>
       <c r="P5" s="57"/>
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="66" t="s">
-        <v>428</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>465</v>
+      <c r="A6" s="74" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>440</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="7" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J6" s="52"/>
       <c r="K6" s="48"/>
-      <c r="L6" s="63" t="s">
-        <v>423</v>
+      <c r="L6" s="61" t="s">
+        <v>403</v>
       </c>
       <c r="P6" s="57"/>
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="68" t="s">
-        <v>354</v>
-      </c>
-      <c r="B7" s="53"/>
+      <c r="A7" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>472</v>
+      </c>
       <c r="F7" s="55"/>
       <c r="J7" s="52"/>
-      <c r="K7" s="48" t="s">
-        <v>342</v>
-      </c>
-      <c r="L7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="62"/>
       <c r="P7" s="57"/>
       <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="68" t="s">
-        <v>360</v>
-      </c>
-      <c r="B8" s="53"/>
+      <c r="A8" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>472</v>
+      </c>
       <c r="F8" s="55"/>
-      <c r="J8" s="52" t="s">
-        <v>359</v>
-      </c>
-      <c r="K8" s="48" t="s">
-        <v>343</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>339</v>
-      </c>
+      <c r="J8" s="52"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="62"/>
       <c r="P8" s="57"/>
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="D9" s="55" t="s">
-        <v>469</v>
+      <c r="A9" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>473</v>
       </c>
       <c r="F9" s="55"/>
-      <c r="G9" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="J9" s="52"/>
-      <c r="K9" s="63" t="s">
-        <v>430</v>
-      </c>
-      <c r="L9" s="48" t="s">
-        <v>337</v>
-      </c>
+      <c r="K9" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="L9" s="48"/>
       <c r="P9" s="57"/>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>421</v>
+      <c r="A10" s="81" t="s">
+        <v>354</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>473</v>
       </c>
       <c r="F10" s="55"/>
-      <c r="G10" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="J10" s="52" t="s">
-        <v>368</v>
-      </c>
-      <c r="K10" s="63" t="s">
-        <v>444</v>
-      </c>
-      <c r="L10" s="48"/>
+        <v>353</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="L10" s="49" t="s">
+        <v>337</v>
+      </c>
       <c r="P10" s="57"/>
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="67" t="s">
-        <v>400</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>398</v>
+      <c r="A11" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>444</v>
       </c>
       <c r="F11" s="55"/>
-      <c r="J11" s="52" t="s">
-        <v>401</v>
-      </c>
-      <c r="K11" s="59" t="s">
-        <v>402</v>
-      </c>
-      <c r="L11" s="48"/>
+      <c r="G11" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>336</v>
+      </c>
       <c r="P11" s="57"/>
       <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>421</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>462</v>
+      <c r="A12" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>472</v>
       </c>
       <c r="F12" s="55"/>
-      <c r="G12" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>456</v>
+      <c r="I12" s="7" t="s">
+        <v>471</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>350</v>
-      </c>
-      <c r="K12" s="63" t="s">
-        <v>424</v>
-      </c>
-      <c r="L12" s="63" t="s">
-        <v>425</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="K12" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="L12" s="62"/>
       <c r="P12" s="57"/>
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>464</v>
+      <c r="A13" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>401</v>
       </c>
       <c r="F13" s="55"/>
+      <c r="G13" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>436</v>
+      </c>
       <c r="I13" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="J13" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="K13" s="59" t="s">
-        <v>392</v>
+        <v>419</v>
+      </c>
+      <c r="J13" s="52"/>
+      <c r="K13" s="61" t="s">
+        <v>434</v>
       </c>
       <c r="L13" s="48"/>
       <c r="P13" s="57"/>
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="67" t="s">
-        <v>403</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>413</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>416</v>
-      </c>
-      <c r="E14" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>468</v>
-      </c>
+      <c r="A14" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="F14" s="55"/>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>455</v>
+        <v>63</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>408</v>
-      </c>
-      <c r="K14" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="L14" s="48" t="s">
-        <v>407</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="K14" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="L14" s="48"/>
       <c r="P14" s="57"/>
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="66" t="s">
-        <v>345</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>399</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>397</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>419</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>463</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="L15" s="48"/>
+      <c r="A15" s="81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="82" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="J15" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="K15" s="48"/>
+      <c r="L15" s="62" t="s">
+        <v>453</v>
+      </c>
       <c r="P15" s="57"/>
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="53"/>
+      <c r="A16" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>472</v>
+      </c>
       <c r="F16" s="55"/>
-      <c r="I16" s="7" t="s">
-        <v>353</v>
-      </c>
       <c r="J16" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="K16" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="L16" s="48" t="s">
-        <v>346</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="K16" s="78" t="s">
+        <v>475</v>
+      </c>
+      <c r="L16" s="62"/>
       <c r="P16" s="57"/>
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="53"/>
+      <c r="A17" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>378</v>
+      </c>
       <c r="F17" s="55"/>
-      <c r="I17" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="J17" s="52" t="s">
-        <v>484</v>
-      </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48" t="s">
-        <v>483</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>382</v>
+      </c>
+      <c r="L17" s="48"/>
       <c r="P17" s="57"/>
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="53"/>
+      <c r="A18" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>446</v>
+      </c>
       <c r="F18" s="55"/>
-      <c r="I18" s="7" t="s">
-        <v>336</v>
+      <c r="G18" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>436</v>
       </c>
       <c r="J18" s="52"/>
-      <c r="K18" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="L18" s="48" t="s">
-        <v>341</v>
-      </c>
+      <c r="K18" s="48"/>
+      <c r="L18" s="62"/>
       <c r="P18" s="57"/>
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B19" s="53"/>
+      <c r="A19" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>401</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>438</v>
+      </c>
       <c r="F19" s="55"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48" t="s">
-        <v>335</v>
+      <c r="G19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>405</v>
       </c>
       <c r="P19" s="57"/>
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B20" s="53"/>
+      <c r="A20" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>439</v>
+      </c>
       <c r="F20" s="55"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="48" t="s">
-        <v>378</v>
+      <c r="I20" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>372</v>
       </c>
       <c r="L20" s="48"/>
       <c r="P20" s="57"/>
       <c r="T20" s="7"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B21" s="53"/>
+      <c r="A21" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>446</v>
+      </c>
       <c r="F21" s="55"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="L21" s="48"/>
+      <c r="G21" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="K21" s="48"/>
+      <c r="L21" s="66" t="s">
+        <v>460</v>
+      </c>
       <c r="P21" s="57"/>
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B22" s="53"/>
-      <c r="F22" s="55"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="L22" s="48"/>
+      <c r="A22" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>379</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>443</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="K22" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>387</v>
+      </c>
       <c r="P22" s="57"/>
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="F23" s="55"/>
+      <c r="A23" s="74" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>377</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>399</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>462</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>426</v>
+      </c>
       <c r="J23" s="52"/>
-      <c r="K23" s="48" t="s">
-        <v>383</v>
+      <c r="K23" s="58" t="s">
+        <v>370</v>
       </c>
       <c r="L23" s="48"/>
       <c r="P23" s="57"/>
       <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" s="53"/>
+      <c r="A24" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>473</v>
+      </c>
       <c r="F24" s="55"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="48" t="s">
-        <v>385</v>
-      </c>
+      <c r="I24" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="K24" s="48"/>
       <c r="L24" s="48" t="s">
-        <v>335</v>
+        <v>455</v>
       </c>
       <c r="P24" s="57"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="69" t="s">
-        <v>347</v>
-      </c>
-      <c r="B25" s="53"/>
+      <c r="A25" s="79" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>472</v>
+      </c>
       <c r="F25" s="55"/>
       <c r="J25" s="52"/>
-      <c r="K25" s="63" t="s">
-        <v>457</v>
-      </c>
-      <c r="L25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="62" t="s">
+        <v>477</v>
+      </c>
       <c r="P25" s="57"/>
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="67" t="s">
-        <v>370</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>394</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>398</v>
+      <c r="A26" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>473</v>
       </c>
       <c r="F26" s="55"/>
-      <c r="G26" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="K26" s="59" t="s">
-        <v>393</v>
-      </c>
-      <c r="L26" s="48"/>
+      <c r="I26" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J26" s="52"/>
+      <c r="K26" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="L26" s="77" t="s">
+        <v>468</v>
+      </c>
       <c r="P26" s="57"/>
       <c r="T26" s="7"/>
     </row>
-    <row r="27" spans="1:20" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A27" s="67" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>413</v>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>374</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>468</v>
+        <v>379</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>378</v>
       </c>
       <c r="F27" s="55"/>
       <c r="G27" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>453</v>
+        <v>424</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="J27" s="52" t="s">
-        <v>412</v>
-      </c>
-      <c r="K27" s="48"/>
-      <c r="L27" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="P27" s="57"/>
-      <c r="T27" s="7"/>
+        <v>363</v>
+      </c>
+      <c r="K27" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="53"/>
+      <c r="A28" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>473</v>
+      </c>
       <c r="F28" s="55"/>
-      <c r="I28" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="J28" s="52"/>
       <c r="K28" s="48"/>
-      <c r="L28" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="P28" s="57"/>
-      <c r="T28" s="7"/>
+      <c r="L28" s="62"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B29" s="53"/>
+      <c r="A29" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>446</v>
+      </c>
       <c r="F29" s="55"/>
-      <c r="J29" s="52"/>
+      <c r="J29" s="52" t="s">
+        <v>447</v>
+      </c>
       <c r="K29" s="48"/>
-      <c r="L29" s="48" t="s">
-        <v>356</v>
-      </c>
-      <c r="P29" s="57"/>
-      <c r="T29" s="7"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B30" s="53"/>
+      <c r="L29" s="66" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>443</v>
+      </c>
       <c r="F30" s="55"/>
-      <c r="J30" s="52"/>
+      <c r="G30" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>429</v>
+      </c>
+      <c r="J30" s="52" t="s">
+        <v>392</v>
+      </c>
       <c r="K30" s="48"/>
-      <c r="L30" s="48" t="s">
-        <v>340</v>
-      </c>
-      <c r="P30" s="57"/>
-      <c r="T30" s="7"/>
+      <c r="L30" s="59" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>362</v>
+      <c r="A31" s="65" t="s">
+        <v>463</v>
       </c>
       <c r="B31" s="53"/>
       <c r="F31" s="55"/>
       <c r="J31" s="52"/>
       <c r="K31" s="48"/>
-      <c r="L31" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="P31" s="57"/>
-      <c r="T31" s="7"/>
+      <c r="L31" s="62"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A32" s="67" t="s">
-        <v>406</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>421</v>
-      </c>
+      <c r="A32" s="65" t="s">
+        <v>464</v>
+      </c>
+      <c r="B32" s="53"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>454</v>
+      <c r="I32" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="J32" s="52" t="s">
-        <v>426</v>
-      </c>
-      <c r="K32" s="59" t="s">
-        <v>415</v>
-      </c>
-      <c r="L32" s="48"/>
-      <c r="P32" s="57"/>
-      <c r="T32" s="7"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A33" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>421</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="65" t="s">
+        <v>465</v>
+      </c>
+      <c r="B33" s="53"/>
       <c r="F33" s="55"/>
-      <c r="G33" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="J33" s="52"/>
-      <c r="K33" s="63" t="s">
-        <v>458</v>
-      </c>
-      <c r="L33" s="48"/>
-      <c r="P33" s="57"/>
-      <c r="T33" s="7"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
+      <c r="K33" s="48"/>
+      <c r="L33" s="62"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="65" t="s">
+        <v>466</v>
       </c>
       <c r="B34" s="53"/>
       <c r="F34" s="55"/>
       <c r="J34" s="52"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="64"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
+      <c r="K34" s="61" t="s">
+        <v>433</v>
+      </c>
+      <c r="L34" s="48"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="65" t="s">
+        <v>467</v>
       </c>
       <c r="B35" s="53"/>
       <c r="F35" s="55"/>
       <c r="J35" s="52"/>
       <c r="K35" s="48"/>
-      <c r="L35" s="64"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B36" s="53"/>
+      <c r="L35" s="62"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>446</v>
+      </c>
       <c r="F36" s="55"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="64"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="B37" s="53"/>
+      <c r="G36" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="K36" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="L36" s="73"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="82" t="s">
+        <v>473</v>
+      </c>
       <c r="F37" s="55"/>
+      <c r="I37" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="J37" s="52"/>
       <c r="K37" s="48"/>
-      <c r="L37" s="64"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B38" s="53"/>
+      <c r="L37" s="83" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>401</v>
+      </c>
       <c r="F38" s="55"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="64"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="B39" s="53"/>
-      <c r="F39" s="55"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="64"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="F40" s="55"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="64"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B41" s="53"/>
-      <c r="F41" s="55"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="64"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B42" s="53"/>
-      <c r="F42" s="55"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="64"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B43" s="53"/>
-      <c r="F43" s="55"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="64"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A44" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>471</v>
-      </c>
-      <c r="F44" s="55"/>
-      <c r="G44" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="J44" s="52"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="64"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A45" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="53"/>
-      <c r="F45" s="55"/>
-      <c r="J45" s="52" t="s">
-        <v>474</v>
-      </c>
-      <c r="K45" s="48"/>
-      <c r="L45" s="64" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A46" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="B46" s="53"/>
-      <c r="F46" s="55"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="64"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="B47" s="53"/>
-      <c r="F47" s="55"/>
-      <c r="J47" s="52" t="s">
-        <v>477</v>
-      </c>
-      <c r="K47" s="48"/>
-      <c r="L47" s="76" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B48" s="53"/>
-      <c r="F48" s="55"/>
-      <c r="J48" s="52" t="s">
-        <v>480</v>
-      </c>
-      <c r="K48" s="48"/>
-      <c r="L48" s="64" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="53"/>
-      <c r="F49" s="55"/>
-      <c r="J49" s="52" t="s">
-        <v>482</v>
-      </c>
-      <c r="K49" s="48"/>
-      <c r="L49" s="64" t="s">
-        <v>481</v>
-      </c>
+      <c r="G38" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="J38" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="K38" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="L38" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L28" r:id="rId1" xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
-    <hyperlink ref="L8" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
+    <hyperlink ref="L37" r:id="rId1" display="https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8_x000a_抖音剪映 _x000a_抖音研发 _x000a_生活服务研发 " xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="L10" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
     <hyperlink ref="K2" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
-    <hyperlink ref="K15" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
+    <hyperlink ref="K23" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
     <hyperlink ref="L3" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
-    <hyperlink ref="K13" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
-    <hyperlink ref="K26" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
-    <hyperlink ref="K11" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
-    <hyperlink ref="K14" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
-    <hyperlink ref="L27" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
-    <hyperlink ref="K32" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
+    <hyperlink ref="K20" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
+    <hyperlink ref="K27" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
+    <hyperlink ref="K17" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
+    <hyperlink ref="K22" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
+    <hyperlink ref="L30" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
+    <hyperlink ref="K38" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
     <hyperlink ref="K5" r:id="rId12" xr:uid="{06B33963-98C4-4CC3-BACB-70D858EA5F01}"/>
     <hyperlink ref="L6" r:id="rId13" xr:uid="{CBF108E6-62CE-4807-8FA9-F92594F12847}"/>
-    <hyperlink ref="K12" r:id="rId14" xr:uid="{28A94E4D-F220-4AB7-ACEA-8193F975B4DF}"/>
-    <hyperlink ref="L12" r:id="rId15" location="/" xr:uid="{9F20F2F9-EFCF-46B1-A06B-A8EF80103AA8}"/>
-    <hyperlink ref="K9" r:id="rId16" xr:uid="{08276EB6-6099-420A-BD80-A724A473516E}"/>
-    <hyperlink ref="K10" r:id="rId17" xr:uid="{9BB79AAC-3B94-4AA3-81ED-A13503476798}"/>
-    <hyperlink ref="K25" r:id="rId18" xr:uid="{93A8D6DD-9772-49EC-BB6C-016CBA6ECF04}"/>
-    <hyperlink ref="K33" r:id="rId19" xr:uid="{C2090F32-7AF7-486A-AB8F-DAD43AFD3578}"/>
-    <hyperlink ref="L47" r:id="rId20" xr:uid="{5FA78125-214D-464A-BA80-CD5B1B65F867}"/>
+    <hyperlink ref="K19" r:id="rId14" xr:uid="{28A94E4D-F220-4AB7-ACEA-8193F975B4DF}"/>
+    <hyperlink ref="L19" r:id="rId15" location="/" xr:uid="{9F20F2F9-EFCF-46B1-A06B-A8EF80103AA8}"/>
+    <hyperlink ref="K11" r:id="rId16" xr:uid="{08276EB6-6099-420A-BD80-A724A473516E}"/>
+    <hyperlink ref="K14" r:id="rId17" xr:uid="{9BB79AAC-3B94-4AA3-81ED-A13503476798}"/>
+    <hyperlink ref="K34" r:id="rId18" xr:uid="{93A8D6DD-9772-49EC-BB6C-016CBA6ECF04}"/>
+    <hyperlink ref="K13" r:id="rId19" xr:uid="{C2090F32-7AF7-486A-AB8F-DAD43AFD3578}"/>
+    <hyperlink ref="K36" r:id="rId20" xr:uid="{5FA78125-214D-464A-BA80-CD5B1B65F867}"/>
+    <hyperlink ref="L21" r:id="rId21" xr:uid="{151D4C1D-3A76-4EC1-B663-803C7D3B29E5}"/>
+    <hyperlink ref="K12" r:id="rId22" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fiq.jobs.feishu.cn%2Fs%2FiSneYTTn" xr:uid="{7AE14D57-C0EA-48B4-BD6B-624F970FFA41}"/>
+    <hyperlink ref="K16" r:id="rId23" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fgw-c.nowcoder.com%2Fapi%2Fsparta%2Fjump%2Flink%3Flink%3Dhttps%253A%252F%252Fapp.mokahr.com%252Fm%252Fcampus_apply%252Fdidiglobal%252F96064%253FrecommendCode%253DDSy5Ewhy%2526hash%253D%252523%25252Fjobs%2523%252Fjobs" xr:uid="{E6462EFB-55C5-4174-9AE5-2B68B96F3B13}"/>
+    <hyperlink ref="L29" r:id="rId24" xr:uid="{F17284EA-0B89-474F-8653-E64C7654FA3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6357,7 +6295,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="70" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6368,7 +6306,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="74"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -6377,7 +6315,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -6386,7 +6324,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="71" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6397,7 +6335,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="74"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -6406,7 +6344,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -6415,11 +6353,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AC95FB-DE51-4F30-86A1-1BB6D66DB4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4FF3F-C6C0-4E46-9A8D-20C0431CE3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="481">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2345,6 +2345,14 @@
   </si>
   <si>
     <t>https://xiaomi.jobs.f.mioffice.cn/referral/campus/position/share/?token=NTsxNzI5ODI4ODQxMjAwOzcxMjMwMzE3MDU4MDc4MTQ3NjU7NzQyOTU0OTU0Nzg3OTkyMzgyMQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.27、04.01流程结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2916,24 +2924,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
@@ -2964,6 +2954,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3693,7 +3701,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3757,19 +3765,19 @@
       <c r="T1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="68" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="69" t="s">
         <v>367</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="70" t="s">
         <v>376</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="70" t="s">
         <v>389</v>
       </c>
-      <c r="E2" s="76"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="55"/>
       <c r="G2" s="7" t="s">
         <v>369</v>
@@ -3871,10 +3879,10 @@
       <c r="T5" s="7"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="69" t="s">
         <v>440</v>
       </c>
       <c r="F6" s="55"/>
@@ -3893,10 +3901,10 @@
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="73" t="s">
         <v>416</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="74" t="s">
         <v>472</v>
       </c>
       <c r="F7" s="55"/>
@@ -3907,10 +3915,10 @@
       <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="73" t="s">
         <v>418</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="74" t="s">
         <v>472</v>
       </c>
       <c r="F8" s="55"/>
@@ -3921,10 +3929,10 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="75" t="s">
         <v>349</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="76" t="s">
         <v>473</v>
       </c>
       <c r="F9" s="55"/>
@@ -3937,10 +3945,10 @@
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="76" t="s">
         <v>473</v>
       </c>
       <c r="F10" s="55"/>
@@ -3966,7 +3974,7 @@
       <c r="C11" s="56" t="s">
         <v>441</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="56" t="s">
         <v>444</v>
       </c>
       <c r="F11" s="55"/>
@@ -3990,10 +3998,10 @@
       <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="73" t="s">
         <v>417</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="74" t="s">
         <v>472</v>
       </c>
       <c r="F12" s="55"/>
@@ -4003,7 +4011,7 @@
       <c r="J12" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="K12" s="78" t="s">
+      <c r="K12" s="72" t="s">
         <v>470</v>
       </c>
       <c r="L12" s="62"/>
@@ -4060,10 +4068,10 @@
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="76" t="s">
         <v>473</v>
       </c>
       <c r="F15" s="55"/>
@@ -4078,17 +4086,17 @@
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="74" t="s">
         <v>472</v>
       </c>
       <c r="F16" s="55"/>
       <c r="J16" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="K16" s="78" t="s">
+      <c r="K16" s="72" t="s">
         <v>475</v>
       </c>
       <c r="L16" s="62"/>
@@ -4163,10 +4171,10 @@
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="70" t="s">
         <v>439</v>
       </c>
       <c r="F20" s="55"/>
@@ -4190,6 +4198,9 @@
       <c r="B21" s="60" t="s">
         <v>446</v>
       </c>
+      <c r="C21" s="56" t="s">
+        <v>479</v>
+      </c>
       <c r="F21" s="55"/>
       <c r="G21" s="7" t="s">
         <v>461</v>
@@ -4208,23 +4219,23 @@
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="68" t="s">
         <v>383</v>
       </c>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="69" t="s">
         <v>393</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="70" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="70" t="s">
         <v>397</v>
       </c>
-      <c r="F22" s="55" t="s">
-        <v>443</v>
+      <c r="F22" s="70" t="s">
+        <v>480</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>391</v>
@@ -4245,22 +4256,22 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="69" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="70" t="s">
         <v>379</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="E23" s="76" t="s">
+      <c r="E23" s="70" t="s">
         <v>399</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F23" s="70" t="s">
         <v>462</v>
       </c>
       <c r="G23" s="7" t="s">
@@ -4278,10 +4289,10 @@
       <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="76" t="s">
         <v>473</v>
       </c>
       <c r="F24" s="55"/>
@@ -4299,10 +4310,10 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="79" t="s">
+      <c r="A25" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="74" t="s">
         <v>472</v>
       </c>
       <c r="F25" s="55"/>
@@ -4315,10 +4326,10 @@
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="76" t="s">
         <v>473</v>
       </c>
       <c r="F26" s="55"/>
@@ -4329,7 +4340,7 @@
       <c r="K26" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="L26" s="77" t="s">
+      <c r="L26" s="71" t="s">
         <v>468</v>
       </c>
       <c r="P26" s="57"/>
@@ -4364,10 +4375,10 @@
       <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="76" t="s">
         <v>473</v>
       </c>
       <c r="F28" s="55"/>
@@ -4500,13 +4511,13 @@
       <c r="K36" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="L36" s="73"/>
+      <c r="L36" s="67"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="76" t="s">
         <v>473</v>
       </c>
       <c r="F37" s="55"/>
@@ -4515,7 +4526,7 @@
       </c>
       <c r="J37" s="52"/>
       <c r="K37" s="48"/>
-      <c r="L37" s="83" t="s">
+      <c r="L37" s="77" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6295,7 +6306,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="81" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6306,7 +6317,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="71"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -6315,7 +6326,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="72"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -6324,7 +6335,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="82" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6335,7 +6346,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="71"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -6344,7 +6355,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="71"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -6353,11 +6364,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD4FF3F-C6C0-4E46-9A8D-20C0431CE3B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D931C2B3-575B-4407-BAF7-1C78D66F422C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="482">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2353,6 +2353,10 @@
   </si>
   <si>
     <t>03.27、04.01流程结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.17、04.07初筛挂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3701,7 +3705,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4104,11 +4108,11 @@
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="64" t="s">
+      <c r="A17" s="68" t="s">
         <v>380</v>
       </c>
-      <c r="B17" s="60" t="s">
-        <v>378</v>
+      <c r="B17" s="69" t="s">
+        <v>481</v>
       </c>
       <c r="F17" s="55"/>
       <c r="J17" s="52" t="s">

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D931C2B3-575B-4407-BAF7-1C78D66F422C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF841C0B-4FA1-4A84-BB28-A6771FA4DC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="484">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1856,10 +1856,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.9笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无限复活甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2198,10 +2194,6 @@
   </si>
   <si>
     <t>03.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03.26笔试不参加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2357,6 +2349,22 @@
   </si>
   <si>
     <t>03.17、04.07初筛挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.26笔试未参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.09笔试未参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2475,7 +2483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2557,6 +2565,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2730,7 +2744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2976,6 +2990,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3705,7 +3722,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3728,19 +3745,19 @@
         <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="53" t="s">
-        <v>357</v>
-      </c>
       <c r="D1" s="53" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>329</v>
@@ -3770,33 +3787,33 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E2" s="70"/>
       <c r="F2" s="55"/>
       <c r="G2" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I2" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="K2" s="58" t="s">
         <v>365</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>364</v>
-      </c>
-      <c r="K2" s="58" t="s">
-        <v>366</v>
       </c>
       <c r="L2" s="48"/>
       <c r="P2" s="57"/>
@@ -3807,51 +3824,51 @@
         <v>23</v>
       </c>
       <c r="B3" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="56" t="s">
         <v>358</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>359</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K3" s="48"/>
       <c r="L3" s="58" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P3" s="57"/>
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>438</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>442</v>
+        <v>437</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>481</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="52"/>
       <c r="K4" s="48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L4" s="48"/>
       <c r="P4" s="57"/>
@@ -3859,24 +3876,24 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J5" s="52"/>
       <c r="K5" s="61" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L5" s="48"/>
       <c r="P5" s="57"/>
@@ -3884,14 +3901,14 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="68" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>1</v>
@@ -3899,17 +3916,17 @@
       <c r="J6" s="52"/>
       <c r="K6" s="48"/>
       <c r="L6" s="61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="P6" s="57"/>
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="73" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F7" s="55"/>
       <c r="J7" s="52"/>
@@ -3920,10 +3937,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="73" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F8" s="55"/>
       <c r="J8" s="52"/>
@@ -3937,7 +3954,7 @@
         <v>349</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F9" s="55"/>
       <c r="J9" s="52"/>
@@ -3950,14 +3967,14 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F10" s="55"/>
       <c r="J10" s="52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>339</v>
@@ -3973,27 +3990,29 @@
         <v>145</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>444</v>
-      </c>
-      <c r="F11" s="55"/>
+        <v>442</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>480</v>
+      </c>
       <c r="G11" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="J11" s="52"/>
       <c r="K11" s="61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L11" s="48" t="s">
         <v>336</v>
@@ -4003,20 +4022,20 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="73" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F12" s="55"/>
       <c r="I12" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K12" s="72" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L12" s="62"/>
       <c r="P12" s="57"/>
@@ -4027,21 +4046,21 @@
         <v>32</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F13" s="55"/>
       <c r="G13" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="I13" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J13" s="52"/>
       <c r="K13" s="61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L13" s="48"/>
       <c r="P13" s="57"/>
@@ -4052,20 +4071,20 @@
         <v>161</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F14" s="55"/>
       <c r="G14" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>63</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K14" s="61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L14" s="48"/>
       <c r="P14" s="57"/>
@@ -4076,15 +4095,15 @@
         <v>24</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F15" s="55"/>
       <c r="J15" s="52" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="62" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P15" s="57"/>
       <c r="T15" s="7"/>
@@ -4094,14 +4113,14 @@
         <v>34</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F16" s="55"/>
       <c r="J16" s="52" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L16" s="62"/>
       <c r="P16" s="57"/>
@@ -4109,17 +4128,17 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F17" s="55"/>
       <c r="J17" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="K17" s="58" t="s">
         <v>381</v>
-      </c>
-      <c r="K17" s="58" t="s">
-        <v>382</v>
       </c>
       <c r="L17" s="48"/>
       <c r="P17" s="57"/>
@@ -4127,17 +4146,23 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>446</v>
+        <v>444</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>482</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J18" s="52"/>
       <c r="K18" s="48"/>
@@ -4150,26 +4175,26 @@
         <v>344</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F19" s="55"/>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J19" s="52" t="s">
         <v>345</v>
       </c>
       <c r="K19" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="L19" s="61" t="s">
         <v>404</v>
-      </c>
-      <c r="L19" s="61" t="s">
-        <v>405</v>
       </c>
       <c r="P19" s="57"/>
       <c r="T19" s="7"/>
@@ -4179,17 +4204,17 @@
         <v>43</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F20" s="55"/>
       <c r="I20" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J20" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K20" s="58" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L20" s="48"/>
       <c r="P20" s="57"/>
@@ -4197,64 +4222,72 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>479</v>
-      </c>
-      <c r="F21" s="55"/>
+        <v>477</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>483</v>
+      </c>
       <c r="G21" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="66" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P21" s="57"/>
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>478</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="K22" s="59" t="s">
         <v>383</v>
       </c>
-      <c r="B22" s="69" t="s">
-        <v>393</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>379</v>
-      </c>
-      <c r="D22" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="F22" s="70" t="s">
-        <v>480</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="J22" s="52" t="s">
-        <v>388</v>
-      </c>
-      <c r="K22" s="59" t="s">
-        <v>384</v>
-      </c>
       <c r="L22" s="48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P22" s="57"/>
       <c r="T22" s="7"/>
@@ -4264,29 +4297,29 @@
         <v>341</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D23" s="70" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F23" s="70" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="J23" s="52"/>
       <c r="K23" s="58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L23" s="48"/>
       <c r="P23" s="57"/>
@@ -4297,18 +4330,18 @@
         <v>13</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F24" s="55"/>
       <c r="I24" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J24" s="52" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="48" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P24" s="57"/>
       <c r="T24" s="7"/>
@@ -4318,13 +4351,13 @@
         <v>246</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F25" s="55"/>
       <c r="J25" s="52"/>
       <c r="K25" s="48"/>
       <c r="L25" s="62" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="P25" s="57"/>
       <c r="T25" s="7"/>
@@ -4334,7 +4367,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F26" s="55"/>
       <c r="I26" s="7" t="s">
@@ -4345,36 +4378,36 @@
         <v>334</v>
       </c>
       <c r="L26" s="71" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P26" s="57"/>
       <c r="T26" s="7"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F27" s="55"/>
       <c r="G27" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>63</v>
       </c>
       <c r="J27" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K27" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L27" s="48"/>
     </row>
@@ -4383,7 +4416,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F28" s="55"/>
       <c r="J28" s="52"/>
@@ -4395,15 +4428,15 @@
         <v>21</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F29" s="55"/>
       <c r="J29" s="52" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="66" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.6" x14ac:dyDescent="0.4">
@@ -4411,32 +4444,32 @@
         <v>12</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F30" s="55"/>
       <c r="G30" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H30" s="63" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J30" s="52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K30" s="48"/>
       <c r="L30" s="59" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="65" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B31" s="53"/>
       <c r="F31" s="55"/>
@@ -4446,7 +4479,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="65" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B32" s="53"/>
       <c r="F32" s="55"/>
@@ -4465,7 +4498,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="65" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B33" s="53"/>
       <c r="F33" s="55"/>
@@ -4475,19 +4508,19 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B34" s="53"/>
       <c r="F34" s="55"/>
       <c r="J34" s="52"/>
       <c r="K34" s="61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="65" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B35" s="53"/>
       <c r="F35" s="55"/>
@@ -4497,23 +4530,23 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="64" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F36" s="55"/>
       <c r="G36" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J36" s="52" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L36" s="67"/>
     </row>
@@ -4522,7 +4555,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F37" s="55"/>
       <c r="I37" s="7" t="s">
@@ -4531,28 +4564,28 @@
       <c r="J37" s="52"/>
       <c r="K37" s="48"/>
       <c r="L37" s="77" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F38" s="55"/>
       <c r="G38" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K38" s="58" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L38" s="48"/>
     </row>

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF841C0B-4FA1-4A84-BB28-A6771FA4DC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893967A9-9D6A-4DEF-ACFC-73FD98E6DA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -2117,9 +2117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研发工程师JAVA</t>
-  </si>
-  <si>
     <t>北京杭州上海深圳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2365,6 +2362,10 @@
   </si>
   <si>
     <t>04.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发工程师JAVA-&gt;技术服务工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2973,6 +2974,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2990,9 +2994,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3722,7 +3723,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3757,7 +3758,7 @@
         <v>397</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>329</v>
@@ -3804,7 +3805,7 @@
         <v>368</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I2" s="54" t="s">
         <v>364</v>
@@ -3854,10 +3855,10 @@
         <v>400</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>437</v>
-      </c>
-      <c r="D4" s="84" t="s">
-        <v>481</v>
+        <v>436</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>480</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="7" t="s">
@@ -3882,14 +3883,14 @@
         <v>400</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F5" s="55"/>
       <c r="G5" s="7" t="s">
         <v>401</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J5" s="52"/>
       <c r="K5" s="61" t="s">
@@ -3904,7 +3905,7 @@
         <v>407</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F6" s="55"/>
       <c r="G6" s="7" t="s">
@@ -3926,7 +3927,7 @@
         <v>415</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F7" s="55"/>
       <c r="J7" s="52"/>
@@ -3940,7 +3941,7 @@
         <v>417</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F8" s="55"/>
       <c r="J8" s="52"/>
@@ -3954,7 +3955,7 @@
         <v>349</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F9" s="55"/>
       <c r="J9" s="52"/>
@@ -3970,7 +3971,7 @@
         <v>353</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F10" s="55"/>
       <c r="J10" s="52" t="s">
@@ -3993,22 +3994,22 @@
         <v>400</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D11" s="56" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E11" s="56" t="s">
         <v>378</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="J11" s="52"/>
       <c r="K11" s="61" t="s">
@@ -4025,17 +4026,17 @@
         <v>416</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F12" s="55"/>
       <c r="I12" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J12" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="K12" s="72" t="s">
         <v>467</v>
-      </c>
-      <c r="K12" s="72" t="s">
-        <v>468</v>
       </c>
       <c r="L12" s="62"/>
       <c r="P12" s="57"/>
@@ -4050,17 +4051,17 @@
       </c>
       <c r="F13" s="55"/>
       <c r="G13" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>418</v>
       </c>
       <c r="J13" s="52"/>
       <c r="K13" s="61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L13" s="48"/>
       <c r="P13" s="57"/>
@@ -4075,7 +4076,7 @@
       </c>
       <c r="F14" s="55"/>
       <c r="G14" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>63</v>
@@ -4095,15 +4096,15 @@
         <v>24</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F15" s="55"/>
       <c r="J15" s="52" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="62" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P15" s="57"/>
       <c r="T15" s="7"/>
@@ -4113,14 +4114,14 @@
         <v>34</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F16" s="55"/>
       <c r="J16" s="52" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L16" s="62"/>
       <c r="P16" s="57"/>
@@ -4131,7 +4132,7 @@
         <v>379</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F17" s="55"/>
       <c r="J17" s="52" t="s">
@@ -4146,23 +4147,23 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C18" s="56" t="s">
         <v>378</v>
       </c>
-      <c r="D18" s="84" t="s">
-        <v>482</v>
+      <c r="D18" s="78" t="s">
+        <v>481</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J18" s="52"/>
       <c r="K18" s="48"/>
@@ -4178,14 +4179,14 @@
         <v>400</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F19" s="55"/>
       <c r="G19" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J19" s="52" t="s">
         <v>345</v>
@@ -4204,7 +4205,7 @@
         <v>43</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F20" s="55"/>
       <c r="I20" s="7" t="s">
@@ -4222,13 +4223,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D21" s="56" t="s">
         <v>378</v>
@@ -4237,20 +4238,20 @@
         <v>378</v>
       </c>
       <c r="F21" s="56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="66" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P21" s="57"/>
       <c r="T21" s="7"/>
@@ -4272,13 +4273,13 @@
         <v>396</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>390</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J22" s="52" t="s">
         <v>387</v>
@@ -4309,13 +4310,13 @@
         <v>398</v>
       </c>
       <c r="F23" s="70" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="J23" s="52"/>
       <c r="K23" s="58" t="s">
@@ -4330,18 +4331,18 @@
         <v>13</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F24" s="55"/>
       <c r="I24" s="7" t="s">
         <v>414</v>
       </c>
       <c r="J24" s="52" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K24" s="48"/>
       <c r="L24" s="48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P24" s="57"/>
       <c r="T24" s="7"/>
@@ -4351,13 +4352,13 @@
         <v>246</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F25" s="55"/>
       <c r="J25" s="52"/>
       <c r="K25" s="48"/>
       <c r="L25" s="62" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P25" s="57"/>
       <c r="T25" s="7"/>
@@ -4367,7 +4368,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F26" s="55"/>
       <c r="I26" s="7" t="s">
@@ -4378,7 +4379,7 @@
         <v>334</v>
       </c>
       <c r="L26" s="71" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="P26" s="57"/>
       <c r="T26" s="7"/>
@@ -4398,7 +4399,7 @@
       </c>
       <c r="F27" s="55"/>
       <c r="G27" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>63</v>
@@ -4416,7 +4417,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F28" s="55"/>
       <c r="J28" s="52"/>
@@ -4428,15 +4429,15 @@
         <v>21</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F29" s="55"/>
       <c r="J29" s="52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K29" s="48"/>
       <c r="L29" s="66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="14.6" x14ac:dyDescent="0.4">
@@ -4450,14 +4451,14 @@
         <v>392</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F30" s="55"/>
       <c r="G30" s="7" t="s">
         <v>393</v>
       </c>
       <c r="H30" s="63" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J30" s="52" t="s">
         <v>391</v>
@@ -4469,7 +4470,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="65" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B31" s="53"/>
       <c r="F31" s="55"/>
@@ -4479,7 +4480,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="65" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B32" s="53"/>
       <c r="F32" s="55"/>
@@ -4498,7 +4499,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="65" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B33" s="53"/>
       <c r="F33" s="55"/>
@@ -4508,19 +4509,19 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B34" s="53"/>
       <c r="F34" s="55"/>
       <c r="J34" s="52"/>
       <c r="K34" s="61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B35" s="53"/>
       <c r="F35" s="55"/>
@@ -4530,23 +4531,23 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F36" s="55"/>
       <c r="G36" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J36" s="52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L36" s="67"/>
     </row>
@@ -4555,7 +4556,7 @@
         <v>6</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F37" s="55"/>
       <c r="I37" s="7" t="s">
@@ -4564,7 +4565,7 @@
       <c r="J37" s="52"/>
       <c r="K37" s="48"/>
       <c r="L37" s="77" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -4579,7 +4580,7 @@
         <v>410</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J38" s="52" t="s">
         <v>405</v>
@@ -6343,7 +6344,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6354,7 +6355,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="82"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -6363,7 +6364,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="83"/>
+      <c r="A4" s="84"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -6372,7 +6373,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6383,7 +6384,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="82"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -6392,7 +6393,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="82"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -6401,11 +6402,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893967A9-9D6A-4DEF-ACFC-73FD98E6DA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7F3FA9-C53C-4EED-B5F3-886654C3D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="487">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1825,9 +1825,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美团</t>
-  </si>
-  <si>
     <t>https://jobs.mihoyo.com/m/?recommendationCode=9QK8&amp;isRecommendation=true#/campus/position</t>
   </si>
   <si>
@@ -1852,10 +1849,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿里 蚂蚁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无限复活甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1867,10 +1860,6 @@
     <t>6GJN60H</t>
   </si>
   <si>
-    <t>阿里 淘天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ES1W02</t>
   </si>
   <si>
@@ -1964,10 +1953,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>格力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AGLCZ11726</t>
   </si>
   <si>
@@ -1975,10 +1960,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://careers.midea.com/schoolOut/post?tabName=internship</t>
   </si>
   <si>
@@ -1999,10 +1980,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OPPO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JAVA开发工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2069,10 +2046,6 @@
     <t>https://mp.weixin.qq.com/s/QIDGqQHn1gH7LThfMzBezg</t>
   </si>
   <si>
-    <t>阿里 高德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿里 钉钉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2097,18 +2070,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿里 哈啰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱奇艺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里 盒马</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3000+实习HC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2265,26 +2226,6 @@
   </si>
   <si>
     <t>03.20、03.24回到人才库、测开捞我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏 莉莉丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏 米哈游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏 完美世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏 网易雷火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏 游戏科学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2297,25 +2238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M8WFEP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://iq.jobs.feishu.cn/s/iSneYTTn</t>
-  </si>
-  <si>
-    <t>为什么验证码是飞书？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暑期实习未开放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月投递</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8
 抖音剪映 https://job.toutiao.com/campus/m/position?keywords=%E5%89%AA%E6%98%A0&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=3&amp;external_referral_code=BEGNWJ8
 抖音研发 https://job.toutiao.com/campus/m/position?keywords=%E6%8A%96%E9%9F%B3%E7%A0%94%E5%8F%91&amp;category=&amp;location=&amp;project=&amp;functionCategory=&amp;job_hot_flag=&amp;tag=&amp;store=&amp;storeFrontListString=&amp;type=&amp;external_referral_code=BEGNWJ8
@@ -2323,13 +2245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://app.mokahr.com/m/campus_apply/didiglobal/96064?recommendCode=DSy5Ewhy&amp;hash=%23%2Fjobs#/jobs</t>
-  </si>
-  <si>
-    <t>DSy5Ewhy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://career.honor.com/SU61b9b9992f9d24431f5050a5/pb/interns.html</t>
   </si>
   <si>
@@ -2366,6 +2281,106 @@
   </si>
   <si>
     <t>研发工程师JAVA-&gt;技术服务工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 小红书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 拼多多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://u.alipay.cn/_4QIkeAfFj7aZSB0dZQYc9f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 阿里 淘天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 阿里 蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 阿里 夸克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 阿里 盒马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 阿里 哈啰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 得物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 格力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 阿里 高德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 OPPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 游戏 莉莉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 游戏 米哈游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 游戏 完美世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 游戏 网易雷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 游戏 游戏科学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京上海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JAVA开发工程师-流程IT与质量运营部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wociun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2484,7 +2499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2554,18 +2569,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2745,7 +2748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2959,22 +2962,10 @@
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="fill" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3377,10 +3368,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L38" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:L38" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L38">
-    <sortCondition ref="A1:A38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L37" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:L37" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L37">
+    <sortCondition ref="A1:A37"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="41"/>
@@ -3720,10 +3711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3746,19 +3737,19 @@
         <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>329</v>
@@ -3770,7 +3761,7 @@
         <v>332</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K1" s="51" t="s">
         <v>340</v>
@@ -3788,113 +3779,94 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
-        <v>389</v>
+        <v>478</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E2" s="70"/>
       <c r="F2" s="55"/>
       <c r="G2" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J2" s="52" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L2" s="48"/>
       <c r="P2" s="57"/>
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>358</v>
+      <c r="A3" s="68" t="s">
+        <v>477</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>428</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="7" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="52" t="s">
-        <v>354</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" s="52"/>
       <c r="K3" s="48"/>
-      <c r="L3" s="58" t="s">
-        <v>370</v>
+      <c r="L3" s="61" t="s">
+        <v>396</v>
       </c>
       <c r="P3" s="57"/>
       <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
-        <v>408</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>436</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>480</v>
+      <c r="A4" s="68" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>456</v>
       </c>
       <c r="F4" s="55"/>
-      <c r="G4" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="48" t="s">
-        <v>406</v>
+      <c r="J4" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>377</v>
       </c>
       <c r="L4" s="48"/>
       <c r="P4" s="57"/>
       <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="64" t="s">
-        <v>351</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>442</v>
+      <c r="A5" s="68" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>427</v>
       </c>
       <c r="F5" s="55"/>
-      <c r="G5" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="61" t="s">
-        <v>399</v>
+      <c r="I5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>368</v>
       </c>
       <c r="L5" s="48"/>
       <c r="P5" s="57"/>
@@ -3902,47 +3874,79 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="68" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>438</v>
-      </c>
-      <c r="F6" s="55"/>
+        <v>386</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>390</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>455</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="61" t="s">
-        <v>402</v>
+        <v>419</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>381</v>
       </c>
       <c r="P6" s="57"/>
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="73" t="s">
-        <v>415</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>469</v>
-      </c>
-      <c r="F7" s="55"/>
+      <c r="A7" s="68" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>449</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="J7" s="52"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="62"/>
+      <c r="K7" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="L7" s="48"/>
       <c r="P7" s="57"/>
       <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="73" t="s">
-        <v>417</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>469</v>
-      </c>
+      <c r="A8" s="55" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="55"/>
       <c r="F8" s="55"/>
       <c r="J8" s="52"/>
       <c r="K8" s="48"/>
@@ -3951,220 +3955,152 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="75" t="s">
-        <v>349</v>
-      </c>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="55" t="s">
         <v>470</v>
       </c>
+      <c r="B9" s="55"/>
       <c r="F9" s="55"/>
       <c r="J9" s="52"/>
-      <c r="K9" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="L9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="62"/>
       <c r="P9" s="57"/>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="75" t="s">
-        <v>353</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>470</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="53"/>
       <c r="F10" s="55"/>
-      <c r="J10" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="L10" s="49" t="s">
-        <v>337</v>
-      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="62"/>
       <c r="P10" s="57"/>
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>439</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>441</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>479</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>420</v>
-      </c>
+      <c r="A11" s="55" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="F11" s="55"/>
       <c r="J11" s="52"/>
-      <c r="K11" s="61" t="s">
-        <v>409</v>
-      </c>
-      <c r="L11" s="48" t="s">
-        <v>336</v>
+      <c r="K11" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="L11" s="72" t="s">
+        <v>466</v>
       </c>
       <c r="P11" s="57"/>
       <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="73" t="s">
-        <v>416</v>
-      </c>
-      <c r="B12" s="74" t="s">
-        <v>469</v>
-      </c>
+      <c r="A12" s="55" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="I12" s="7" t="s">
-        <v>468</v>
-      </c>
       <c r="J12" s="52" t="s">
-        <v>466</v>
-      </c>
-      <c r="K12" s="72" t="s">
-        <v>467</v>
-      </c>
-      <c r="L12" s="62"/>
+        <v>350</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>337</v>
+      </c>
       <c r="P12" s="57"/>
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>400</v>
-      </c>
+      <c r="A13" s="55" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="55"/>
       <c r="F13" s="55"/>
-      <c r="G13" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="61" t="s">
-        <v>432</v>
-      </c>
-      <c r="L13" s="48"/>
+      <c r="J13" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="K13" s="48"/>
+      <c r="L13" s="62" t="s">
+        <v>440</v>
+      </c>
       <c r="P13" s="57"/>
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>400</v>
-      </c>
+      <c r="A14" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="G14" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>63</v>
+      <c r="I14" s="7" t="s">
+        <v>407</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>359</v>
-      </c>
-      <c r="K14" s="61" t="s">
-        <v>419</v>
-      </c>
-      <c r="L14" s="48"/>
+        <v>443</v>
+      </c>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48" t="s">
+        <v>442</v>
+      </c>
       <c r="P14" s="57"/>
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A15" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>470</v>
-      </c>
+      <c r="A15" s="55" t="s">
+        <v>464</v>
+      </c>
+      <c r="B15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="J15" s="52" t="s">
-        <v>451</v>
-      </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="62" t="s">
+      <c r="I15" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J15" s="52"/>
+      <c r="K15" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="L15" s="71" t="s">
         <v>450</v>
       </c>
       <c r="P15" s="57"/>
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>469</v>
-      </c>
+      <c r="A16" s="55" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" s="55"/>
       <c r="F16" s="55"/>
-      <c r="J16" s="52" t="s">
-        <v>473</v>
-      </c>
-      <c r="K16" s="72" t="s">
-        <v>472</v>
-      </c>
+      <c r="J16" s="52"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="62"/>
       <c r="P16" s="57"/>
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A17" s="68" t="s">
-        <v>379</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>478</v>
-      </c>
+      <c r="A17" s="55" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="J17" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="K17" s="58" t="s">
-        <v>381</v>
-      </c>
-      <c r="L17" s="48"/>
+      <c r="I17" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J17" s="52"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="73" t="s">
+        <v>451</v>
+      </c>
       <c r="P17" s="57"/>
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="64" t="s">
-        <v>454</v>
-      </c>
-      <c r="B18" s="60" t="s">
-        <v>443</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>481</v>
-      </c>
+      <c r="A18" s="65" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" s="53"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>434</v>
-      </c>
       <c r="J18" s="52"/>
       <c r="K18" s="48"/>
       <c r="L18" s="62"/>
@@ -4172,455 +4108,472 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>436</v>
-      </c>
+      <c r="A19" s="65" t="s">
+        <v>480</v>
+      </c>
+      <c r="B19" s="53"/>
       <c r="F19" s="55"/>
-      <c r="G19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>430</v>
+      <c r="I19" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="J19" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="K19" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="K19" s="61" t="s">
-        <v>403</v>
-      </c>
-      <c r="L19" s="61" t="s">
-        <v>404</v>
+      <c r="L19" s="48" t="s">
+        <v>341</v>
       </c>
       <c r="P19" s="57"/>
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>437</v>
-      </c>
+      <c r="A20" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="B20" s="53"/>
       <c r="F20" s="55"/>
-      <c r="I20" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="J20" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="K20" s="58" t="s">
-        <v>371</v>
-      </c>
-      <c r="L20" s="48"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="62"/>
       <c r="P20" s="57"/>
       <c r="T20" s="7"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A21" s="64" t="s">
-        <v>448</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>443</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>476</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="F21" s="56" t="s">
+      <c r="A21" s="65" t="s">
         <v>482</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="52" t="s">
-        <v>449</v>
-      </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="66" t="s">
-        <v>457</v>
-      </c>
+      <c r="B21" s="53"/>
+      <c r="F21" s="55"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="L21" s="48"/>
       <c r="P21" s="57"/>
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A22" s="68" t="s">
-        <v>382</v>
-      </c>
-      <c r="B22" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="D22" s="70" t="s">
-        <v>395</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="F22" s="70" t="s">
-        <v>477</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="J22" s="52" t="s">
-        <v>387</v>
-      </c>
-      <c r="K22" s="59" t="s">
-        <v>383</v>
-      </c>
-      <c r="L22" s="48" t="s">
-        <v>386</v>
-      </c>
+      <c r="A22" s="65" t="s">
+        <v>483</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="F22" s="55"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="62"/>
       <c r="P22" s="57"/>
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="68" t="s">
-        <v>341</v>
-      </c>
-      <c r="B23" s="69" t="s">
-        <v>366</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>376</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>398</v>
-      </c>
-      <c r="F23" s="70" t="s">
-        <v>459</v>
-      </c>
+      <c r="A23" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="F23" s="55"/>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="J23" s="52"/>
-      <c r="K23" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="L23" s="48"/>
+        <v>58</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="K23" s="48"/>
+      <c r="L23" s="58" t="s">
+        <v>367</v>
+      </c>
       <c r="P23" s="57"/>
       <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="76" t="s">
-        <v>470</v>
+      <c r="A24" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="D24" s="74" t="s">
+        <v>458</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="I24" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>453</v>
-      </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48" t="s">
-        <v>452</v>
-      </c>
+      <c r="G24" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="52"/>
+      <c r="K24" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="L24" s="48"/>
       <c r="P24" s="57"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="B25" s="74" t="s">
-        <v>469</v>
+      <c r="A25" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>432</v>
       </c>
       <c r="F25" s="55"/>
+      <c r="G25" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>415</v>
+      </c>
       <c r="J25" s="52"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="62" t="s">
-        <v>474</v>
-      </c>
-      <c r="P25" s="57"/>
-      <c r="T25" s="7"/>
+      <c r="K25" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A26" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="76" t="s">
-        <v>470</v>
-      </c>
-      <c r="F26" s="55"/>
-      <c r="I26" s="7" t="s">
-        <v>335</v>
+      <c r="A26" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>457</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>410</v>
       </c>
       <c r="J26" s="52"/>
-      <c r="K26" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="L26" s="71" t="s">
-        <v>465</v>
-      </c>
-      <c r="P26" s="57"/>
-      <c r="T26" s="7"/>
+      <c r="K26" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="64" t="s">
-        <v>361</v>
+        <v>32</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>373</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="D27" s="56" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F27" s="55"/>
       <c r="G27" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="J27" s="52"/>
+      <c r="K27" s="61" t="s">
         <v>422</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="L27" s="48"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J27" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="K27" s="58" t="s">
-        <v>372</v>
-      </c>
-      <c r="L27" s="48"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A28" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="76" t="s">
-        <v>470</v>
-      </c>
-      <c r="F28" s="55"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="62"/>
+      <c r="J28" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="K28" s="61" t="s">
+        <v>409</v>
+      </c>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="64" t="s">
-        <v>21</v>
+        <v>444</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>443</v>
+        <v>433</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>459</v>
       </c>
       <c r="F29" s="55"/>
-      <c r="J29" s="52" t="s">
-        <v>444</v>
-      </c>
+      <c r="G29" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="J29" s="52"/>
       <c r="K29" s="48"/>
-      <c r="L29" s="66" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="L29" s="62"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="64" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>392</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="F30" s="55"/>
       <c r="G30" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="H30" s="63" t="s">
-        <v>427</v>
+        <v>405</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="J30" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="K30" s="48"/>
-      <c r="L30" s="59" t="s">
-        <v>384</v>
+        <v>344</v>
+      </c>
+      <c r="K30" s="61" t="s">
+        <v>397</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>433</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>454</v>
+      </c>
+      <c r="D31" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="F31" s="55"/>
-      <c r="J31" s="52"/>
+      <c r="G31" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="52" t="s">
+        <v>439</v>
+      </c>
       <c r="K31" s="48"/>
-      <c r="L31" s="62"/>
+      <c r="L31" s="66" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A32" s="65" t="s">
-        <v>461</v>
-      </c>
-      <c r="B32" s="53"/>
+      <c r="A32" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="56" t="s">
+        <v>460</v>
+      </c>
       <c r="F32" s="55"/>
-      <c r="I32" s="7" t="s">
-        <v>348</v>
+      <c r="G32" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>484</v>
       </c>
       <c r="J32" s="52" t="s">
-        <v>347</v>
-      </c>
-      <c r="K32" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="L32" s="48" t="s">
-        <v>342</v>
+        <v>486</v>
+      </c>
+      <c r="K32" s="48"/>
+      <c r="L32" s="62" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="65" t="s">
-        <v>462</v>
-      </c>
-      <c r="B33" s="53"/>
+      <c r="A33" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>374</v>
+      </c>
       <c r="F33" s="55"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="62"/>
+      <c r="G33" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="K33" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="L33" s="48"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="65" t="s">
-        <v>463</v>
-      </c>
-      <c r="B34" s="53"/>
+      <c r="A34" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>433</v>
+      </c>
       <c r="F34" s="55"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="61" t="s">
-        <v>431</v>
-      </c>
-      <c r="L34" s="48"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="65" t="s">
-        <v>464</v>
-      </c>
-      <c r="B35" s="53"/>
+      <c r="J34" s="52" t="s">
+        <v>434</v>
+      </c>
+      <c r="K34" s="48"/>
+      <c r="L34" s="66" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A35" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="C35" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>430</v>
+      </c>
       <c r="F35" s="55"/>
-      <c r="J35" s="52"/>
+      <c r="G35" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="J35" s="52" t="s">
+        <v>385</v>
+      </c>
       <c r="K35" s="48"/>
-      <c r="L35" s="62"/>
+      <c r="L35" s="59" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="64" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F36" s="55"/>
       <c r="G36" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J36" s="52" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="K36" s="66" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L36" s="67"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="76" t="s">
-        <v>470</v>
+      <c r="A37" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>394</v>
       </c>
       <c r="F37" s="55"/>
-      <c r="I37" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="J37" s="52"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="77" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="64" t="s">
-        <v>385</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="J38" s="52" t="s">
-        <v>405</v>
-      </c>
-      <c r="K38" s="58" t="s">
-        <v>394</v>
-      </c>
-      <c r="L38" s="48"/>
+      <c r="G37" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="J37" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="K37" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="L37" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L37" r:id="rId1" display="https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8_x000a_抖音剪映 _x000a_抖音研发 _x000a_生活服务研发 " xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
-    <hyperlink ref="L10" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
+    <hyperlink ref="L17" r:id="rId1" display="https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8_x000a_抖音剪映 _x000a_抖音研发 _x000a_生活服务研发 " xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="L12" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
     <hyperlink ref="K2" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
-    <hyperlink ref="K23" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
-    <hyperlink ref="L3" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
-    <hyperlink ref="K20" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
-    <hyperlink ref="K27" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
-    <hyperlink ref="K17" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
-    <hyperlink ref="K22" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
-    <hyperlink ref="L30" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
-    <hyperlink ref="K38" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
-    <hyperlink ref="K5" r:id="rId12" xr:uid="{06B33963-98C4-4CC3-BACB-70D858EA5F01}"/>
-    <hyperlink ref="L6" r:id="rId13" xr:uid="{CBF108E6-62CE-4807-8FA9-F92594F12847}"/>
-    <hyperlink ref="K19" r:id="rId14" xr:uid="{28A94E4D-F220-4AB7-ACEA-8193F975B4DF}"/>
-    <hyperlink ref="L19" r:id="rId15" location="/" xr:uid="{9F20F2F9-EFCF-46B1-A06B-A8EF80103AA8}"/>
-    <hyperlink ref="K11" r:id="rId16" xr:uid="{08276EB6-6099-420A-BD80-A724A473516E}"/>
-    <hyperlink ref="K14" r:id="rId17" xr:uid="{9BB79AAC-3B94-4AA3-81ED-A13503476798}"/>
-    <hyperlink ref="K34" r:id="rId18" xr:uid="{93A8D6DD-9772-49EC-BB6C-016CBA6ECF04}"/>
-    <hyperlink ref="K13" r:id="rId19" xr:uid="{C2090F32-7AF7-486A-AB8F-DAD43AFD3578}"/>
+    <hyperlink ref="K7" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
+    <hyperlink ref="L23" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
+    <hyperlink ref="K5" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
+    <hyperlink ref="K33" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
+    <hyperlink ref="K4" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
+    <hyperlink ref="K6" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
+    <hyperlink ref="L35" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
+    <hyperlink ref="K37" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
+    <hyperlink ref="K25" r:id="rId12" xr:uid="{06B33963-98C4-4CC3-BACB-70D858EA5F01}"/>
+    <hyperlink ref="L3" r:id="rId13" xr:uid="{CBF108E6-62CE-4807-8FA9-F92594F12847}"/>
+    <hyperlink ref="K30" r:id="rId14" xr:uid="{28A94E4D-F220-4AB7-ACEA-8193F975B4DF}"/>
+    <hyperlink ref="L30" r:id="rId15" location="/" xr:uid="{9F20F2F9-EFCF-46B1-A06B-A8EF80103AA8}"/>
+    <hyperlink ref="K26" r:id="rId16" xr:uid="{08276EB6-6099-420A-BD80-A724A473516E}"/>
+    <hyperlink ref="K28" r:id="rId17" xr:uid="{9BB79AAC-3B94-4AA3-81ED-A13503476798}"/>
+    <hyperlink ref="K21" r:id="rId18" xr:uid="{93A8D6DD-9772-49EC-BB6C-016CBA6ECF04}"/>
+    <hyperlink ref="K27" r:id="rId19" xr:uid="{C2090F32-7AF7-486A-AB8F-DAD43AFD3578}"/>
     <hyperlink ref="K36" r:id="rId20" xr:uid="{5FA78125-214D-464A-BA80-CD5B1B65F867}"/>
-    <hyperlink ref="L21" r:id="rId21" xr:uid="{151D4C1D-3A76-4EC1-B663-803C7D3B29E5}"/>
-    <hyperlink ref="K12" r:id="rId22" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fiq.jobs.feishu.cn%2Fs%2FiSneYTTn" xr:uid="{7AE14D57-C0EA-48B4-BD6B-624F970FFA41}"/>
-    <hyperlink ref="K16" r:id="rId23" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fgw-c.nowcoder.com%2Fapi%2Fsparta%2Fjump%2Flink%3Flink%3Dhttps%253A%252F%252Fapp.mokahr.com%252Fm%252Fcampus_apply%252Fdidiglobal%252F96064%253FrecommendCode%253DDSy5Ewhy%2526hash%253D%252523%25252Fjobs%2523%252Fjobs" xr:uid="{E6462EFB-55C5-4174-9AE5-2B68B96F3B13}"/>
-    <hyperlink ref="L29" r:id="rId24" xr:uid="{F17284EA-0B89-474F-8653-E64C7654FA3B}"/>
+    <hyperlink ref="L31" r:id="rId21" xr:uid="{151D4C1D-3A76-4EC1-B663-803C7D3B29E5}"/>
+    <hyperlink ref="L34" r:id="rId22" xr:uid="{F17284EA-0B89-474F-8653-E64C7654FA3B}"/>
+    <hyperlink ref="L11" r:id="rId23" xr:uid="{BC42043E-46ED-40BF-A55E-01890E736B90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6344,7 +6297,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="78" t="s">
         <v>76</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6355,7 +6308,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="83"/>
+      <c r="A3" s="79"/>
       <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
@@ -6364,7 +6317,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="84"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="8" t="s">
         <v>71</v>
       </c>
@@ -6373,7 +6326,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="79" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -6384,7 +6337,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="83"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="3" t="s">
         <v>72</v>
       </c>
@@ -6393,7 +6346,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="83"/>
+      <c r="A7" s="79"/>
       <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
@@ -6402,11 +6355,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7F3FA9-C53C-4EED-B5F3-886654C3D46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9A21E6-54C5-4E97-BCD6-D8EDAF41C7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-206" yWindow="0" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="489">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2185,10 +2185,6 @@
     <t>NTAVP5l</t>
   </si>
   <si>
-    <t>联想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联想员工推荐 2025XZLMWYL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2260,22 +2256,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03.17、04.07初筛挂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>04.09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03.26笔试未参加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04.09笔试未参加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>04.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2381,6 +2365,30 @@
   </si>
   <si>
     <t>wociun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.10、04.16一面挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.09、04.16笔试未参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.26、04.16笔试未参加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.17、04.07简历挂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3368,8 +3376,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L37" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:L37" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L38" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:L38" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L37">
     <sortCondition ref="A1:A37"/>
   </sortState>
@@ -3711,10 +3719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="D35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3779,7 +3787,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>363</v>
@@ -3813,7 +3821,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="68" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>428</v>
@@ -3835,10 +3843,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="F4" s="55"/>
       <c r="J4" s="52" t="s">
@@ -3853,7 +3861,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="68" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>427</v>
@@ -3874,89 +3882,112 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="68" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="C6" s="70" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="D6" s="70" t="s">
-        <v>389</v>
-      </c>
       <c r="E6" s="70" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>419</v>
+        <v>59</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>382</v>
-      </c>
-      <c r="K6" s="59" t="s">
-        <v>378</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>381</v>
+        <v>438</v>
+      </c>
+      <c r="K6" s="48"/>
+      <c r="L6" s="66" t="s">
+        <v>446</v>
       </c>
       <c r="P6" s="57"/>
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="68" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>375</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="L7" s="48"/>
+        <v>419</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>381</v>
+      </c>
       <c r="P7" s="57"/>
       <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="55" t="s">
-        <v>471</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="A8" s="68" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>448</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>414</v>
+      </c>
       <c r="J8" s="52"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="62"/>
+      <c r="K8" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="48"/>
       <c r="P8" s="57"/>
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="55" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B9" s="55"/>
       <c r="F9" s="55"/>
@@ -3967,10 +3998,10 @@
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B10" s="53"/>
+      <c r="A10" s="55" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" s="55"/>
       <c r="F10" s="55"/>
       <c r="J10" s="52"/>
       <c r="K10" s="48"/>
@@ -3979,431 +4010,408 @@
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="55" t="s">
-        <v>468</v>
-      </c>
-      <c r="B11" s="55"/>
+      <c r="A11" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B11" s="53"/>
       <c r="F11" s="55"/>
       <c r="J11" s="52"/>
-      <c r="K11" s="48" t="s">
-        <v>338</v>
-      </c>
-      <c r="L11" s="72" t="s">
-        <v>466</v>
-      </c>
+      <c r="K11" s="48"/>
+      <c r="L11" s="62"/>
       <c r="P11" s="57"/>
       <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B12" s="55"/>
       <c r="F12" s="55"/>
-      <c r="J12" s="52" t="s">
-        <v>350</v>
-      </c>
+      <c r="J12" s="52"/>
       <c r="K12" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="L12" s="49" t="s">
-        <v>337</v>
+        <v>338</v>
+      </c>
+      <c r="L12" s="72" t="s">
+        <v>462</v>
       </c>
       <c r="P12" s="57"/>
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="55" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B13" s="55"/>
       <c r="F13" s="55"/>
       <c r="J13" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="62" t="s">
-        <v>440</v>
+        <v>350</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="L13" s="49" t="s">
+        <v>337</v>
       </c>
       <c r="P13" s="57"/>
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="55" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B14" s="55"/>
       <c r="F14" s="55"/>
-      <c r="I14" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="J14" s="52" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K14" s="48"/>
-      <c r="L14" s="48" t="s">
-        <v>442</v>
+      <c r="L14" s="62" t="s">
+        <v>439</v>
       </c>
       <c r="P14" s="57"/>
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="55" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B15" s="55"/>
       <c r="F15" s="55"/>
       <c r="I15" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="L15" s="71" t="s">
-        <v>450</v>
+        <v>407</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48" t="s">
+        <v>441</v>
       </c>
       <c r="P15" s="57"/>
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="55" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B16" s="55"/>
       <c r="F16" s="55"/>
+      <c r="I16" s="7" t="s">
+        <v>335</v>
+      </c>
       <c r="J16" s="52"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="62"/>
+      <c r="K16" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="L16" s="71" t="s">
+        <v>449</v>
+      </c>
       <c r="P16" s="57"/>
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="55" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="I17" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="J17" s="52"/>
       <c r="K17" s="48"/>
-      <c r="L17" s="73" t="s">
-        <v>451</v>
-      </c>
+      <c r="L17" s="62"/>
       <c r="P17" s="57"/>
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A18" s="65" t="s">
-        <v>479</v>
-      </c>
-      <c r="B18" s="53"/>
+      <c r="A18" s="55" t="s">
+        <v>459</v>
+      </c>
+      <c r="B18" s="55"/>
       <c r="F18" s="55"/>
+      <c r="I18" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="J18" s="52"/>
       <c r="K18" s="48"/>
-      <c r="L18" s="62"/>
+      <c r="L18" s="73" t="s">
+        <v>450</v>
+      </c>
       <c r="P18" s="57"/>
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="65" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B19" s="53"/>
       <c r="F19" s="55"/>
-      <c r="I19" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="K19" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="L19" s="48" t="s">
-        <v>341</v>
-      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="62"/>
       <c r="P19" s="57"/>
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="65" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B20" s="53"/>
       <c r="F20" s="55"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="62"/>
+      <c r="I20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>341</v>
+      </c>
       <c r="P20" s="57"/>
       <c r="T20" s="7"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="65" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B21" s="53"/>
       <c r="F21" s="55"/>
       <c r="J21" s="52"/>
-      <c r="K21" s="61" t="s">
-        <v>421</v>
-      </c>
-      <c r="L21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="62"/>
       <c r="P21" s="57"/>
       <c r="T21" s="7"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="65" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B22" s="53"/>
       <c r="F22" s="55"/>
       <c r="J22" s="52"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="62"/>
+      <c r="K22" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="L22" s="48"/>
       <c r="P22" s="57"/>
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A23" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>355</v>
-      </c>
+      <c r="A23" s="65" t="s">
+        <v>479</v>
+      </c>
+      <c r="B23" s="53"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" s="52" t="s">
-        <v>351</v>
-      </c>
+      <c r="J23" s="52"/>
       <c r="K23" s="48"/>
-      <c r="L23" s="58" t="s">
-        <v>367</v>
-      </c>
+      <c r="L23" s="62"/>
       <c r="P23" s="57"/>
       <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="64" t="s">
-        <v>401</v>
+        <v>23</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>426</v>
-      </c>
-      <c r="D24" s="74" t="s">
-        <v>458</v>
+        <v>355</v>
       </c>
       <c r="F24" s="55"/>
       <c r="G24" s="7" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="52"/>
-      <c r="K24" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="L24" s="48"/>
+        <v>58</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="K24" s="48"/>
+      <c r="L24" s="58" t="s">
+        <v>367</v>
+      </c>
       <c r="P24" s="57"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="64" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="B25" s="60" t="s">
         <v>394</v>
       </c>
-      <c r="C25" s="55" t="s">
-        <v>432</v>
+      <c r="C25" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>487</v>
       </c>
       <c r="F25" s="55"/>
       <c r="G25" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>415</v>
+        <v>1</v>
       </c>
       <c r="J25" s="52"/>
-      <c r="K25" s="61" t="s">
-        <v>393</v>
+      <c r="K25" s="48" t="s">
+        <v>400</v>
       </c>
       <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="64" t="s">
-        <v>145</v>
+        <v>349</v>
       </c>
       <c r="B26" s="60" t="s">
         <v>394</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>431</v>
-      </c>
-      <c r="E26" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="F26" s="56" t="s">
-        <v>457</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="F26" s="55"/>
       <c r="G26" s="7" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="J26" s="52"/>
       <c r="K26" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="L26" s="48" t="s">
-        <v>336</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="L26" s="48"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="64" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="B27" s="60" t="s">
         <v>394</v>
       </c>
-      <c r="F27" s="55"/>
+      <c r="C27" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>455</v>
+      </c>
       <c r="G27" s="7" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J27" s="52"/>
       <c r="K27" s="61" t="s">
-        <v>422</v>
-      </c>
-      <c r="L27" s="48"/>
+        <v>402</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="64" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>394</v>
       </c>
       <c r="F28" s="55"/>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J28" s="52" t="s">
-        <v>356</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="J28" s="52"/>
       <c r="K28" s="61" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L28" s="48"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="64" t="s">
-        <v>444</v>
+        <v>161</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>433</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="D29" s="74" t="s">
-        <v>459</v>
+        <v>394</v>
       </c>
       <c r="F29" s="55"/>
       <c r="G29" s="7" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="J29" s="52"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="62"/>
+        <v>63</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="K29" s="61" t="s">
+        <v>409</v>
+      </c>
+      <c r="L29" s="48"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="64" t="s">
-        <v>343</v>
+        <v>443</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>426</v>
+        <v>375</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>486</v>
       </c>
       <c r="F30" s="55"/>
       <c r="G30" s="7" t="s">
-        <v>405</v>
+        <v>444</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="J30" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="K30" s="61" t="s">
-        <v>397</v>
-      </c>
-      <c r="L30" s="61" t="s">
-        <v>398</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="J30" s="52"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="62"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="64" t="s">
-        <v>438</v>
+        <v>343</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>454</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="F31" s="56" t="s">
-        <v>460</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="F31" s="55"/>
       <c r="G31" s="7" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>59</v>
+        <v>420</v>
       </c>
       <c r="J31" s="52" t="s">
-        <v>439</v>
-      </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="66" t="s">
-        <v>447</v>
+        <v>344</v>
+      </c>
+      <c r="K31" s="61" t="s">
+        <v>397</v>
+      </c>
+      <c r="L31" s="61" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
@@ -4411,21 +4419,27 @@
         <v>246</v>
       </c>
       <c r="B32" s="56" t="s">
-        <v>460</v>
+        <v>456</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>485</v>
       </c>
       <c r="F32" s="55"/>
       <c r="G32" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J32" s="52" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K32" s="48"/>
       <c r="L32" s="62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -4469,7 +4483,7 @@
       </c>
       <c r="K34" s="48"/>
       <c r="L34" s="66" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
@@ -4482,7 +4496,7 @@
       <c r="C35" s="56" t="s">
         <v>386</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="56" t="s">
         <v>430</v>
       </c>
       <c r="F35" s="55"/>
@@ -4509,7 +4523,7 @@
       </c>
       <c r="F36" s="55"/>
       <c r="G36" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>59</v>
@@ -4544,32 +4558,42 @@
       </c>
       <c r="L37" s="48"/>
     </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="53"/>
+      <c r="F38" s="55"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="62"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L17" r:id="rId1" display="https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8_x000a_抖音剪映 _x000a_抖音研发 _x000a_生活服务研发 " xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
-    <hyperlink ref="L12" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
+    <hyperlink ref="L18" r:id="rId1" display="https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8_x000a_抖音剪映 _x000a_抖音研发 _x000a_生活服务研发 " xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="L13" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
     <hyperlink ref="K2" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
-    <hyperlink ref="K7" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
-    <hyperlink ref="L23" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
+    <hyperlink ref="K8" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
+    <hyperlink ref="L24" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
     <hyperlink ref="K5" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
     <hyperlink ref="K33" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
     <hyperlink ref="K4" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
-    <hyperlink ref="K6" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
+    <hyperlink ref="K7" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
     <hyperlink ref="L35" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
     <hyperlink ref="K37" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
-    <hyperlink ref="K25" r:id="rId12" xr:uid="{06B33963-98C4-4CC3-BACB-70D858EA5F01}"/>
+    <hyperlink ref="K26" r:id="rId12" xr:uid="{06B33963-98C4-4CC3-BACB-70D858EA5F01}"/>
     <hyperlink ref="L3" r:id="rId13" xr:uid="{CBF108E6-62CE-4807-8FA9-F92594F12847}"/>
-    <hyperlink ref="K30" r:id="rId14" xr:uid="{28A94E4D-F220-4AB7-ACEA-8193F975B4DF}"/>
-    <hyperlink ref="L30" r:id="rId15" location="/" xr:uid="{9F20F2F9-EFCF-46B1-A06B-A8EF80103AA8}"/>
-    <hyperlink ref="K26" r:id="rId16" xr:uid="{08276EB6-6099-420A-BD80-A724A473516E}"/>
-    <hyperlink ref="K28" r:id="rId17" xr:uid="{9BB79AAC-3B94-4AA3-81ED-A13503476798}"/>
-    <hyperlink ref="K21" r:id="rId18" xr:uid="{93A8D6DD-9772-49EC-BB6C-016CBA6ECF04}"/>
-    <hyperlink ref="K27" r:id="rId19" xr:uid="{C2090F32-7AF7-486A-AB8F-DAD43AFD3578}"/>
+    <hyperlink ref="K31" r:id="rId14" xr:uid="{28A94E4D-F220-4AB7-ACEA-8193F975B4DF}"/>
+    <hyperlink ref="L31" r:id="rId15" location="/" xr:uid="{9F20F2F9-EFCF-46B1-A06B-A8EF80103AA8}"/>
+    <hyperlink ref="K27" r:id="rId16" xr:uid="{08276EB6-6099-420A-BD80-A724A473516E}"/>
+    <hyperlink ref="K29" r:id="rId17" xr:uid="{9BB79AAC-3B94-4AA3-81ED-A13503476798}"/>
+    <hyperlink ref="K22" r:id="rId18" xr:uid="{93A8D6DD-9772-49EC-BB6C-016CBA6ECF04}"/>
+    <hyperlink ref="K28" r:id="rId19" xr:uid="{C2090F32-7AF7-486A-AB8F-DAD43AFD3578}"/>
     <hyperlink ref="K36" r:id="rId20" xr:uid="{5FA78125-214D-464A-BA80-CD5B1B65F867}"/>
-    <hyperlink ref="L31" r:id="rId21" xr:uid="{151D4C1D-3A76-4EC1-B663-803C7D3B29E5}"/>
+    <hyperlink ref="L6" r:id="rId21" xr:uid="{151D4C1D-3A76-4EC1-B663-803C7D3B29E5}"/>
     <hyperlink ref="L34" r:id="rId22" xr:uid="{F17284EA-0B89-474F-8653-E64C7654FA3B}"/>
-    <hyperlink ref="L11" r:id="rId23" xr:uid="{BC42043E-46ED-40BF-A55E-01890E736B90}"/>
+    <hyperlink ref="L12" r:id="rId23" xr:uid="{BC42043E-46ED-40BF-A55E-01890E736B90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9A21E6-54C5-4E97-BCD6-D8EDAF41C7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6209A02E-4557-4839-AC4C-FB34D98E4381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-206" yWindow="0" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="暑期实习" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="493">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2163,10 +2163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>03.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2389,6 +2385,26 @@
   </si>
   <si>
     <t>03.17、04.07简历挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 滴滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.23一面未参加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3376,10 +3392,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L38" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:L38" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L37">
-    <sortCondition ref="A1:A37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}" name="表4" displayName="表4" ref="A1:L39" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:L39" xr:uid="{A0EC77C7-5F49-4BFE-84BB-9B7DC902C23F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L39">
+    <sortCondition ref="A1:A39"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3B3BF118-731C-4EA1-8166-61E9A7C36096}" name="部门" dataDxfId="41"/>
@@ -3719,10 +3735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="C35:D35"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3787,7 +3803,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>363</v>
@@ -3821,7 +3837,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>428</v>
@@ -3843,10 +3859,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F4" s="55"/>
       <c r="J4" s="52" t="s">
@@ -3861,7 +3877,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="68" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>427</v>
@@ -3882,13 +3898,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="68" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D6" s="70" t="s">
         <v>375</v>
@@ -3897,27 +3913,27 @@
         <v>375</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="66" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P6" s="57"/>
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="68" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B7" s="69" t="s">
         <v>386</v>
@@ -3932,7 +3948,7 @@
         <v>390</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>384</v>
@@ -3954,7 +3970,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="68" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B8" s="69" t="s">
         <v>363</v>
@@ -3969,7 +3985,7 @@
         <v>392</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>413</v>
@@ -3987,7 +4003,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B9" s="55"/>
       <c r="F9" s="55"/>
@@ -3999,7 +4015,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B10" s="55"/>
       <c r="F10" s="55"/>
@@ -4011,7 +4027,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B11" s="53"/>
       <c r="F11" s="55"/>
@@ -4023,7 +4039,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B12" s="55"/>
       <c r="F12" s="55"/>
@@ -4032,14 +4048,14 @@
         <v>338</v>
       </c>
       <c r="L12" s="72" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="P12" s="57"/>
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="55" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B13" s="55"/>
       <c r="F13" s="55"/>
@@ -4056,68 +4072,61 @@
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A14" s="55" t="s">
-        <v>468</v>
-      </c>
-      <c r="B14" s="55"/>
+      <c r="A14" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B14" s="53"/>
       <c r="F14" s="55"/>
-      <c r="J14" s="52" t="s">
-        <v>440</v>
-      </c>
+      <c r="J14" s="52"/>
       <c r="K14" s="48"/>
-      <c r="L14" s="62" t="s">
-        <v>439</v>
-      </c>
+      <c r="L14" s="62"/>
       <c r="P14" s="57"/>
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="55" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B15" s="55"/>
       <c r="F15" s="55"/>
-      <c r="I15" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="J15" s="52" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K15" s="48"/>
-      <c r="L15" s="48" t="s">
-        <v>441</v>
+      <c r="L15" s="62" t="s">
+        <v>438</v>
       </c>
       <c r="P15" s="57"/>
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A16" s="55" t="s">
-        <v>460</v>
-      </c>
-      <c r="B16" s="55"/>
+      <c r="A16" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B16" s="53"/>
       <c r="F16" s="55"/>
-      <c r="I16" s="7" t="s">
-        <v>335</v>
-      </c>
       <c r="J16" s="52"/>
-      <c r="K16" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="L16" s="71" t="s">
-        <v>449</v>
-      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="62"/>
       <c r="P16" s="57"/>
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="55" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B17" s="55"/>
       <c r="F17" s="55"/>
-      <c r="J17" s="52"/>
+      <c r="I17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>441</v>
+      </c>
       <c r="K17" s="48"/>
-      <c r="L17" s="62"/>
+      <c r="L17" s="48" t="s">
+        <v>440</v>
+      </c>
       <c r="P17" s="57"/>
       <c r="T17" s="7"/>
     </row>
@@ -4128,21 +4137,23 @@
       <c r="B18" s="55"/>
       <c r="F18" s="55"/>
       <c r="I18" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J18" s="52"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="73" t="s">
-        <v>450</v>
+      <c r="K18" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="L18" s="71" t="s">
+        <v>448</v>
       </c>
       <c r="P18" s="57"/>
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A19" s="65" t="s">
-        <v>475</v>
-      </c>
-      <c r="B19" s="53"/>
+      <c r="A19" s="55" t="s">
+        <v>457</v>
+      </c>
+      <c r="B19" s="55"/>
       <c r="F19" s="55"/>
       <c r="J19" s="52"/>
       <c r="K19" s="48"/>
@@ -4151,29 +4162,25 @@
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A20" s="65" t="s">
-        <v>476</v>
-      </c>
-      <c r="B20" s="53"/>
+      <c r="A20" s="55" t="s">
+        <v>458</v>
+      </c>
+      <c r="B20" s="55"/>
       <c r="F20" s="55"/>
       <c r="I20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J20" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="L20" s="48" t="s">
-        <v>341</v>
+        <v>333</v>
+      </c>
+      <c r="J20" s="52"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="73" t="s">
+        <v>449</v>
       </c>
       <c r="P20" s="57"/>
       <c r="T20" s="7"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="65" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B21" s="53"/>
       <c r="F21" s="55"/>
@@ -4185,21 +4192,28 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="65" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B22" s="53"/>
       <c r="F22" s="55"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="61" t="s">
-        <v>421</v>
-      </c>
-      <c r="L22" s="48"/>
+      <c r="I22" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>346</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="L22" s="48" t="s">
+        <v>341</v>
+      </c>
       <c r="P22" s="57"/>
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="65" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B23" s="53"/>
       <c r="F23" s="55"/>
@@ -4210,389 +4224,406 @@
       <c r="T23" s="7"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A24" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="C24" s="56" t="s">
-        <v>355</v>
-      </c>
+      <c r="A24" s="65" t="s">
+        <v>477</v>
+      </c>
+      <c r="B24" s="53"/>
       <c r="F24" s="55"/>
-      <c r="G24" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="52" t="s">
-        <v>351</v>
-      </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="58" t="s">
-        <v>367</v>
-      </c>
+      <c r="J24" s="52"/>
+      <c r="K24" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="L24" s="48"/>
       <c r="P24" s="57"/>
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A25" s="64" t="s">
-        <v>401</v>
-      </c>
-      <c r="B25" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>426</v>
-      </c>
-      <c r="D25" s="74" t="s">
-        <v>487</v>
-      </c>
+      <c r="A25" s="65" t="s">
+        <v>478</v>
+      </c>
+      <c r="B25" s="53"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="J25" s="52"/>
-      <c r="K25" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="L25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="62"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="64" t="s">
-        <v>349</v>
+        <v>23</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>432</v>
+        <v>355</v>
       </c>
       <c r="F26" s="55"/>
       <c r="G26" s="7" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="J26" s="52"/>
-      <c r="K26" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="L26" s="48"/>
+        <v>58</v>
+      </c>
+      <c r="J26" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="K26" s="48"/>
+      <c r="L26" s="58" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="64" t="s">
-        <v>145</v>
+        <v>401</v>
       </c>
       <c r="B27" s="60" t="s">
         <v>394</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="D27" s="56" t="s">
-        <v>431</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="F27" s="56" t="s">
-        <v>455</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="D27" s="74" t="s">
+        <v>486</v>
+      </c>
+      <c r="F27" s="55"/>
       <c r="G27" s="7" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>410</v>
+        <v>1</v>
       </c>
       <c r="J27" s="52"/>
-      <c r="K27" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="L27" s="48" t="s">
-        <v>336</v>
-      </c>
+      <c r="K27" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="64" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>394</v>
       </c>
+      <c r="C28" s="56" t="s">
+        <v>490</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>491</v>
+      </c>
       <c r="F28" s="55"/>
       <c r="G28" s="7" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="J28" s="52"/>
       <c r="K28" s="61" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="L28" s="48"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="64" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B29" s="60" t="s">
         <v>394</v>
       </c>
-      <c r="F29" s="55"/>
+      <c r="C29" s="56" t="s">
+        <v>429</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>431</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>454</v>
+      </c>
       <c r="G29" s="7" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J29" s="52" t="s">
-        <v>356</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="J29" s="52"/>
       <c r="K29" s="61" t="s">
-        <v>409</v>
-      </c>
-      <c r="L29" s="48"/>
+        <v>402</v>
+      </c>
+      <c r="L29" s="48" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="64" t="s">
-        <v>443</v>
+        <v>32</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>433</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="D30" s="74" t="s">
-        <v>486</v>
+        <v>394</v>
       </c>
       <c r="F30" s="55"/>
       <c r="G30" s="7" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>424</v>
       </c>
+      <c r="I30" s="7" t="s">
+        <v>408</v>
+      </c>
       <c r="J30" s="52"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="62"/>
+      <c r="K30" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="L30" s="48"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="64" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
       <c r="B31" s="60" t="s">
         <v>394</v>
       </c>
-      <c r="C31" s="56" t="s">
-        <v>426</v>
-      </c>
       <c r="F31" s="55"/>
       <c r="G31" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>420</v>
+        <v>63</v>
       </c>
       <c r="J31" s="52" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="K31" s="61" t="s">
-        <v>397</v>
-      </c>
-      <c r="L31" s="61" t="s">
-        <v>398</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="L31" s="48"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A32" s="56" t="s">
-        <v>246</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>456</v>
+      <c r="A32" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>432</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="74" t="s">
         <v>485</v>
       </c>
       <c r="F32" s="55"/>
       <c r="G32" s="7" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="J32" s="52" t="s">
-        <v>482</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="J32" s="52"/>
       <c r="K32" s="48"/>
-      <c r="L32" s="62" t="s">
-        <v>451</v>
-      </c>
+      <c r="L32" s="62"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="64" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="F33" s="55"/>
       <c r="G33" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>63</v>
+        <v>420</v>
       </c>
       <c r="J33" s="52" t="s">
-        <v>359</v>
-      </c>
-      <c r="K33" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="L33" s="48"/>
+        <v>344</v>
+      </c>
+      <c r="K33" s="61" t="s">
+        <v>397</v>
+      </c>
+      <c r="L33" s="61" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="60" t="s">
-        <v>433</v>
-      </c>
-      <c r="F34" s="55"/>
+      <c r="A34" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>484</v>
+      </c>
+      <c r="F34" s="74" t="s">
+        <v>492</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>479</v>
+      </c>
       <c r="J34" s="52" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="K34" s="48"/>
-      <c r="L34" s="66" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="L34" s="62" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="64" t="s">
-        <v>12</v>
+        <v>358</v>
       </c>
       <c r="B35" s="60" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="F35" s="55"/>
       <c r="G35" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="H35" s="63" t="s">
-        <v>417</v>
+        <v>412</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="J35" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="K35" s="48"/>
-      <c r="L35" s="59" t="s">
-        <v>379</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="K35" s="58" t="s">
+        <v>369</v>
+      </c>
+      <c r="L35" s="48"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="64" t="s">
-        <v>435</v>
+        <v>21</v>
       </c>
       <c r="B36" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="F36" s="55"/>
+      <c r="J36" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J36" s="52" t="s">
-        <v>437</v>
-      </c>
-      <c r="K36" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="L36" s="67"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K36" s="48"/>
+      <c r="L36" s="66" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A37" s="64" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>394</v>
+        <v>386</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>430</v>
       </c>
       <c r="F37" s="55"/>
       <c r="G37" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>417</v>
+      </c>
+      <c r="J37" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="K37" s="48"/>
+      <c r="L37" s="59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="K38" s="66" t="s">
+        <v>435</v>
+      </c>
+      <c r="L38" s="67"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="F39" s="55"/>
+      <c r="G39" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H39" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="J37" s="52" t="s">
+      <c r="J39" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="K37" s="58" t="s">
+      <c r="K39" s="58" t="s">
         <v>388</v>
       </c>
-      <c r="L37" s="48"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="53"/>
-      <c r="F38" s="55"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="62"/>
+      <c r="L39" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L18" r:id="rId1" display="https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8_x000a_抖音剪映 _x000a_抖音研发 _x000a_生活服务研发 " xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
+    <hyperlink ref="L20" r:id="rId1" display="https://job.toutiao.com/campus/m/position?external_referral_code=BEGNWJ8_x000a_抖音剪映 _x000a_抖音研发 _x000a_生活服务研发 " xr:uid="{DEBABE98-7BD8-4A1D-B98C-D55DE0E1418A}"/>
     <hyperlink ref="L13" r:id="rId2" xr:uid="{2F9644EF-EF5D-4788-9A13-CCD289291BD6}"/>
     <hyperlink ref="K2" r:id="rId3" xr:uid="{4F3DF624-2B61-43BB-AC46-CDEAB28B3C9C}"/>
     <hyperlink ref="K8" r:id="rId4" xr:uid="{C53418AB-7F2B-4674-B0BD-4ECC3BBF342D}"/>
-    <hyperlink ref="L24" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
+    <hyperlink ref="L26" r:id="rId5" xr:uid="{4090B8B5-C37B-4187-AAD9-2DDEE22CE696}"/>
     <hyperlink ref="K5" r:id="rId6" location="/campus/jobs?code=campusitAjZhOjZ" xr:uid="{9356E8D7-2FBC-4E12-B7A5-F90B1A1FB356}"/>
-    <hyperlink ref="K33" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
+    <hyperlink ref="K35" r:id="rId7" location="/jobs" xr:uid="{847B46EF-004C-4BD7-A37D-FB92A0E72EC1}"/>
     <hyperlink ref="K4" r:id="rId8" xr:uid="{954AD93C-9BD2-4DD8-AB77-D909DB56D5B2}"/>
     <hyperlink ref="K7" r:id="rId9" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcareers.midea.com%2FschoolOut%2Fpost%3FtabName%3Dinternship" xr:uid="{8E5AB2CC-6847-4A92-B074-5D5E2D6B0931}"/>
-    <hyperlink ref="L35" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
-    <hyperlink ref="K37" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
-    <hyperlink ref="K26" r:id="rId12" xr:uid="{06B33963-98C4-4CC3-BACB-70D858EA5F01}"/>
+    <hyperlink ref="L37" r:id="rId10" display="https://gw-c.nowcoder.com/api/sparta/jump/link?link=https%3A%2F%2Fcampus.ctrip.com%2F" xr:uid="{E46F6744-B1FB-4A78-B34A-21E746281FAF}"/>
+    <hyperlink ref="K39" r:id="rId11" location="/jobs" xr:uid="{BC49647B-9A28-41ED-8B68-1E0BE9555427}"/>
+    <hyperlink ref="K28" r:id="rId12" xr:uid="{06B33963-98C4-4CC3-BACB-70D858EA5F01}"/>
     <hyperlink ref="L3" r:id="rId13" xr:uid="{CBF108E6-62CE-4807-8FA9-F92594F12847}"/>
-    <hyperlink ref="K31" r:id="rId14" xr:uid="{28A94E4D-F220-4AB7-ACEA-8193F975B4DF}"/>
-    <hyperlink ref="L31" r:id="rId15" location="/" xr:uid="{9F20F2F9-EFCF-46B1-A06B-A8EF80103AA8}"/>
-    <hyperlink ref="K27" r:id="rId16" xr:uid="{08276EB6-6099-420A-BD80-A724A473516E}"/>
-    <hyperlink ref="K29" r:id="rId17" xr:uid="{9BB79AAC-3B94-4AA3-81ED-A13503476798}"/>
-    <hyperlink ref="K22" r:id="rId18" xr:uid="{93A8D6DD-9772-49EC-BB6C-016CBA6ECF04}"/>
-    <hyperlink ref="K28" r:id="rId19" xr:uid="{C2090F32-7AF7-486A-AB8F-DAD43AFD3578}"/>
-    <hyperlink ref="K36" r:id="rId20" xr:uid="{5FA78125-214D-464A-BA80-CD5B1B65F867}"/>
+    <hyperlink ref="K33" r:id="rId14" xr:uid="{28A94E4D-F220-4AB7-ACEA-8193F975B4DF}"/>
+    <hyperlink ref="L33" r:id="rId15" location="/" xr:uid="{9F20F2F9-EFCF-46B1-A06B-A8EF80103AA8}"/>
+    <hyperlink ref="K29" r:id="rId16" xr:uid="{08276EB6-6099-420A-BD80-A724A473516E}"/>
+    <hyperlink ref="K31" r:id="rId17" xr:uid="{9BB79AAC-3B94-4AA3-81ED-A13503476798}"/>
+    <hyperlink ref="K24" r:id="rId18" xr:uid="{93A8D6DD-9772-49EC-BB6C-016CBA6ECF04}"/>
+    <hyperlink ref="K30" r:id="rId19" xr:uid="{C2090F32-7AF7-486A-AB8F-DAD43AFD3578}"/>
+    <hyperlink ref="K38" r:id="rId20" xr:uid="{5FA78125-214D-464A-BA80-CD5B1B65F867}"/>
     <hyperlink ref="L6" r:id="rId21" xr:uid="{151D4C1D-3A76-4EC1-B663-803C7D3B29E5}"/>
-    <hyperlink ref="L34" r:id="rId22" xr:uid="{F17284EA-0B89-474F-8653-E64C7654FA3B}"/>
+    <hyperlink ref="L36" r:id="rId22" xr:uid="{F17284EA-0B89-474F-8653-E64C7654FA3B}"/>
     <hyperlink ref="L12" r:id="rId23" xr:uid="{BC42043E-46ED-40BF-A55E-01890E736B90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6209A02E-4557-4839-AC4C-FB34D98E4381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77A1CE0-9DE3-40F8-994E-CA0D06A23D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="495">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2406,6 +2406,12 @@
   <si>
     <t>04.23一面未参加</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/campus_apply/didiglobal/96064?recommendCode=DS55GHty&amp;hash=%23%2Fjobs#/jobs</t>
+  </si>
+  <si>
+    <t>DS55GHty</t>
   </si>
 </sst>
 </file>
@@ -3738,7 +3744,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -4105,8 +4111,12 @@
       </c>
       <c r="B16" s="53"/>
       <c r="F16" s="55"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="48"/>
+      <c r="J16" s="52" t="s">
+        <v>494</v>
+      </c>
+      <c r="K16" s="72" t="s">
+        <v>493</v>
+      </c>
       <c r="L16" s="62"/>
       <c r="P16" s="57"/>
       <c r="T16" s="7"/>
@@ -4625,10 +4635,11 @@
     <hyperlink ref="L6" r:id="rId21" xr:uid="{151D4C1D-3A76-4EC1-B663-803C7D3B29E5}"/>
     <hyperlink ref="L36" r:id="rId22" xr:uid="{F17284EA-0B89-474F-8653-E64C7654FA3B}"/>
     <hyperlink ref="L12" r:id="rId23" xr:uid="{BC42043E-46ED-40BF-A55E-01890E736B90}"/>
+    <hyperlink ref="K16" r:id="rId24" location="/jobs" display="https://app.mokahr.com/m/campus_apply/didiglobal/96064?recommendCode=DS55GHty&amp;hash=%23%2Fjobs - /jobs" xr:uid="{BA617EA8-A624-4B7E-B5D4-176F32090D00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77A1CE0-9DE3-40F8-994E-CA0D06A23D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4505DFE-124B-4908-B30E-249F3B7D4747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="496">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2128,9 +2128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TPG研发工程师（J83425）</t>
-  </si>
-  <si>
     <t>上海杭州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2412,6 +2409,14 @@
   </si>
   <si>
     <t>DS55GHty</t>
+  </si>
+  <si>
+    <t>03.23、04.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPG研发工程师（J83425）、后端研发工程师(数据存储方向)（J84556）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3743,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC5566C-84F0-4C5A-A4B8-2C2E3F5CF689}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3779,7 +3784,7 @@
         <v>391</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>329</v>
@@ -3809,7 +3814,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>363</v>
@@ -3843,10 +3848,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="68" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F3" s="55"/>
       <c r="G3" s="7" t="s">
@@ -3865,10 +3870,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F4" s="55"/>
       <c r="J4" s="52" t="s">
@@ -3883,10 +3888,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="68" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F5" s="55"/>
       <c r="I5" s="7" t="s">
@@ -3904,13 +3909,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="68" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D6" s="70" t="s">
         <v>375</v>
@@ -3919,27 +3924,27 @@
         <v>375</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="66" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P6" s="57"/>
       <c r="T6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="68" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B7" s="69" t="s">
         <v>386</v>
@@ -3954,7 +3959,7 @@
         <v>390</v>
       </c>
       <c r="F7" s="70" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>384</v>
@@ -3976,7 +3981,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="68" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B8" s="69" t="s">
         <v>363</v>
@@ -3991,7 +3996,7 @@
         <v>392</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>413</v>
@@ -4009,7 +4014,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="55" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B9" s="55"/>
       <c r="F9" s="55"/>
@@ -4021,7 +4026,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="55" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B10" s="55"/>
       <c r="F10" s="55"/>
@@ -4033,7 +4038,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B11" s="53"/>
       <c r="F11" s="55"/>
@@ -4045,7 +4050,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="55" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B12" s="55"/>
       <c r="F12" s="55"/>
@@ -4054,14 +4059,14 @@
         <v>338</v>
       </c>
       <c r="L12" s="72" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P12" s="57"/>
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B13" s="55"/>
       <c r="F13" s="55"/>
@@ -4079,7 +4084,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B14" s="53"/>
       <c r="F14" s="55"/>
@@ -4091,31 +4096,31 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="55" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B15" s="55"/>
       <c r="F15" s="55"/>
       <c r="J15" s="52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K15" s="48"/>
       <c r="L15" s="62" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P15" s="57"/>
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B16" s="53"/>
       <c r="F16" s="55"/>
       <c r="J16" s="52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L16" s="62"/>
       <c r="P16" s="57"/>
@@ -4123,7 +4128,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="55" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B17" s="55"/>
       <c r="F17" s="55"/>
@@ -4131,18 +4136,18 @@
         <v>407</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K17" s="48"/>
       <c r="L17" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P17" s="57"/>
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="55" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B18" s="55"/>
       <c r="F18" s="55"/>
@@ -4154,14 +4159,14 @@
         <v>334</v>
       </c>
       <c r="L18" s="71" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P18" s="57"/>
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="55" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B19" s="55"/>
       <c r="F19" s="55"/>
@@ -4173,7 +4178,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="55" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B20" s="55"/>
       <c r="F20" s="55"/>
@@ -4183,14 +4188,14 @@
       <c r="J20" s="52"/>
       <c r="K20" s="48"/>
       <c r="L20" s="73" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P20" s="57"/>
       <c r="T20" s="7"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="65" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B21" s="53"/>
       <c r="F21" s="55"/>
@@ -4202,7 +4207,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="65" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B22" s="53"/>
       <c r="F22" s="55"/>
@@ -4223,7 +4228,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="65" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B23" s="53"/>
       <c r="F23" s="55"/>
@@ -4235,7 +4240,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="65" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B24" s="53"/>
       <c r="F24" s="55"/>
@@ -4249,7 +4254,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="65" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B25" s="53"/>
       <c r="F25" s="55"/>
@@ -4290,10 +4295,10 @@
         <v>394</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F27" s="55"/>
       <c r="G27" s="7" t="s">
@@ -4316,10 +4321,10 @@
         <v>394</v>
       </c>
       <c r="C28" s="56" t="s">
+        <v>489</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>490</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>491</v>
       </c>
       <c r="F28" s="55"/>
       <c r="G28" s="7" t="s">
@@ -4342,19 +4347,19 @@
         <v>394</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D29" s="56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E29" s="56" t="s">
         <v>375</v>
       </c>
       <c r="F29" s="56" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>410</v>
@@ -4372,14 +4377,14 @@
         <v>32</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>394</v>
+        <v>494</v>
       </c>
       <c r="F30" s="55"/>
       <c r="G30" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="I30" s="7" t="s">
         <v>408</v>
@@ -4414,23 +4419,23 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C32" s="56" t="s">
         <v>375</v>
       </c>
       <c r="D32" s="74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F32" s="55"/>
       <c r="G32" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J32" s="52"/>
       <c r="K32" s="48"/>
@@ -4444,7 +4449,7 @@
         <v>394</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F33" s="55"/>
       <c r="G33" s="7" t="s">
@@ -4468,29 +4473,29 @@
         <v>246</v>
       </c>
       <c r="B34" s="56" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C34" s="56" t="s">
         <v>375</v>
       </c>
       <c r="D34" s="56" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="J34" s="52" t="s">
         <v>480</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="J34" s="52" t="s">
-        <v>481</v>
       </c>
       <c r="K34" s="48"/>
       <c r="L34" s="62" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -4526,15 +4531,15 @@
         <v>21</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F36" s="55"/>
       <c r="J36" s="52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K36" s="48"/>
       <c r="L36" s="66" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
@@ -4548,7 +4553,7 @@
         <v>386</v>
       </c>
       <c r="D37" s="56" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F37" s="55"/>
       <c r="G37" s="7" t="s">
@@ -4567,23 +4572,23 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F38" s="55"/>
       <c r="G38" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K38" s="66" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L38" s="67"/>
     </row>

--- a/投递/大厂信息.xlsx
+++ b/投递/大厂信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\develop\GithubRepo\LeetCode\投递\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4505DFE-124B-4908-B30E-249F3B7D4747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D45B01-9D26-4422-9DB5-E8AABB58D388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="498">
   <si>
     <t>城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2373,10 +2373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>04.09、04.16笔试未参加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>03.26、04.16笔试未参加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2416,6 +2412,18 @@
   </si>
   <si>
     <t>TPG研发工程师（J83425）、后端研发工程师(数据存储方向)（J84556）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3749,7 +3757,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -3873,7 +3881,7 @@
         <v>470</v>
       </c>
       <c r="B4" s="69" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F4" s="55"/>
       <c r="J4" s="52" t="s">
@@ -4084,7 +4092,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B14" s="53"/>
       <c r="F14" s="55"/>
@@ -4112,15 +4120,15 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B16" s="53"/>
       <c r="F16" s="55"/>
       <c r="J16" s="52" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K16" s="72" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L16" s="62"/>
       <c r="P16" s="57"/>
@@ -4298,7 +4306,7 @@
         <v>425</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F27" s="55"/>
       <c r="G27" s="7" t="s">
@@ -4321,12 +4329,17 @@
         <v>394</v>
       </c>
       <c r="C28" s="56" t="s">
+        <v>488</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>489</v>
       </c>
-      <c r="D28" s="56" t="s">
-        <v>490</v>
-      </c>
-      <c r="F28" s="55"/>
+      <c r="E28" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="F28" s="74" t="s">
+        <v>495</v>
+      </c>
       <c r="G28" s="7" t="s">
         <v>395</v>
       </c>
@@ -4377,11 +4390,11 @@
         <v>32</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F30" s="55"/>
       <c r="G30" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>423</v>
@@ -4424,11 +4437,11 @@
       <c r="B32" s="60" t="s">
         <v>431</v>
       </c>
-      <c r="C32" s="56" t="s">
-        <v>375</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>484</v>
+      <c r="C32" s="74" t="s">
+        <v>497</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>496</v>
       </c>
       <c r="F32" s="55"/>
       <c r="G32" s="7" t="s">
@@ -4482,7 +4495,7 @@
         <v>483</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>479</v>
